--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
     <sheet name="充" sheetId="2" r:id="rId2"/>
+    <sheet name="基金" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +27,26 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164703 - 汇添富纯债债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164210 - 天弘同利债券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +102,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +214,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -556,6 +598,9 @@
         <v>295500</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -565,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -583,11 +628,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>217100</v>
+        <v>221000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>217100</v>
+        <v>221000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -628,6 +673,94 @@
       <c r="B5" s="10">
         <v>17000</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>43279</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2">
+        <f>SUM(C3:C65535)</f>
+        <v>2000</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>43279</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>43279</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,11 +552,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>322595.55</v>
+        <v>322000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>322595.55</v>
+        <v>322000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -576,27 +576,19 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="B3" s="10">
-        <v>20100</v>
+        <v>322000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>43279</v>
-      </c>
-      <c r="B4" s="10">
-        <v>6995.55</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>43279</v>
-      </c>
-      <c r="B5" s="10">
-        <v>295500</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -613,7 +605,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -652,35 +644,22 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="B3" s="10">
-        <v>200000</v>
+        <v>221000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>43279</v>
-      </c>
-      <c r="B4" s="10">
-        <v>100</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>43279</v>
-      </c>
-      <c r="B5" s="10">
-        <v>17000</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>43279</v>
-      </c>
-      <c r="B6" s="11">
-        <v>3900</v>
-      </c>
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -694,7 +673,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
     <sheet name="充" sheetId="2" r:id="rId2"/>
-    <sheet name="基金" sheetId="3" r:id="rId3"/>
+    <sheet name="纯债基金" sheetId="3" r:id="rId3"/>
+    <sheet name="指数基金" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,7 +538,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,11 +553,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -583,8 +584,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9">
+        <v>43283</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -605,7 +610,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -672,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -746,4 +751,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2">
+        <f>SUM(C3:C65535)</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,42 @@
   </si>
   <si>
     <t>164210 - 天弘同利债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510310 - HS300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510510 - 广发500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512880 - 证券ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +134,14 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -153,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +220,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +319,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +658,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -610,7 +730,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -678,7 +798,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -755,60 +875,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="2">
-        <f>SUM(C3:C65535)</f>
+    <row r="1" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="O1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>43284</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1.44</v>
+      </c>
+      <c r="C3" s="22">
+        <v>700</v>
+      </c>
+      <c r="D3" s="20">
+        <f>B3*C3</f>
+        <v>1008</v>
+      </c>
+      <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="F3" s="20">
+        <f>D3+E3</f>
+        <v>1008</v>
+      </c>
+      <c r="H3" s="19">
+        <v>43284</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1.42</v>
+      </c>
+      <c r="J3" s="22">
+        <v>700</v>
+      </c>
+      <c r="K3" s="20">
+        <f>I3*J3</f>
+        <v>994</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <f>K3+L3</f>
+        <v>994</v>
+      </c>
+      <c r="O3" s="19">
+        <v>43284</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>700</v>
+      </c>
+      <c r="R3" s="20">
+        <f>P3*Q3</f>
+        <v>511</v>
+      </c>
+      <c r="S3" s="20">
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <f>R3+S3</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -673,11 +673,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>324000</v>
+        <v>300000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>324000</v>
+        <v>300000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -697,19 +697,15 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43280</v>
+        <v>43285</v>
       </c>
       <c r="B3" s="10">
-        <v>322000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>43283</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2000</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -730,7 +726,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -745,11 +741,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>221000</v>
+        <v>243000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>221000</v>
+        <v>243000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -769,10 +765,10 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43280</v>
+        <v>43285</v>
       </c>
       <c r="B3" s="10">
-        <v>221000</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -877,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1051,8 +1047,26 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19">
+        <v>43285</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1.44</v>
+      </c>
+      <c r="C4" s="22">
+        <v>700</v>
+      </c>
+      <c r="D4" s="20">
+        <f>B4*C4</f>
+        <v>1008</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <f>D4+E4</f>
+        <v>1008</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="21"/>
       <c r="O4" s="19"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -874,7 +874,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -999,11 +999,11 @@
         <v>1008</v>
       </c>
       <c r="E3" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="20">
         <f>D3+E3</f>
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="H3" s="19">
         <v>43284</v>
@@ -1019,11 +1019,11 @@
         <v>994</v>
       </c>
       <c r="L3" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="20">
         <f>K3+L3</f>
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="O3" s="19">
         <v>43284</v>
@@ -1039,11 +1039,11 @@
         <v>511</v>
       </c>
       <c r="S3" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3" s="20">
         <f>R3+S3</f>
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1061,11 +1061,11 @@
         <v>1008</v>
       </c>
       <c r="E4" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="20">
         <f>D4+E4</f>
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="21"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -673,11 +673,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
@@ -697,10 +697,10 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="B3" s="10">
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -741,15 +741,15 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>B1-C1</f>
-        <v>243000</v>
+        <v>278000</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B65535)</f>
-        <v>243000</v>
+        <v>283000</v>
       </c>
       <c r="C1" s="3">
         <f>SUM(C3:C65535)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -765,15 +765,20 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="B3" s="10">
-        <v>243000</v>
+        <v>283000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9">
+        <v>43286</v>
+      </c>
       <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <v>5000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -794,7 +799,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -874,7 +879,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -270,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +347,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -878,60 +888,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="23" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
     <col min="15" max="15" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" style="20" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
     </row>
     <row r="2" spans="1:20" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -993,60 +1003,60 @@
       <c r="A3" s="19">
         <v>43284</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="27">
         <v>1.44</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="28">
         <v>700</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="29">
         <f>B3*C3</f>
         <v>1008</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="29">
         <v>5</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="29">
         <f>D3+E3</f>
         <v>1013</v>
       </c>
       <c r="H3" s="19">
         <v>43284</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="27">
         <v>1.42</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="28">
         <v>700</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="29">
         <f>I3*J3</f>
         <v>994</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="29">
         <v>5</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="29">
         <f>K3+L3</f>
         <v>999</v>
       </c>
       <c r="O3" s="19">
         <v>43284</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="27">
         <v>0.73</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>700</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="29">
         <f>P3*Q3</f>
         <v>511</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="29">
         <v>5</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="29">
         <f>R3+S3</f>
         <v>516</v>
       </c>
@@ -1055,27 +1065,63 @@
       <c r="A4" s="19">
         <v>43285</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="27">
         <v>1.44</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="28">
         <v>700</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="29">
         <f>B4*C4</f>
         <v>1008</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="29">
         <v>5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="29">
         <f>D4+E4</f>
         <v>1013</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="21"/>
+      <c r="H4" s="19">
+        <v>43286</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1.405</v>
+      </c>
+      <c r="J4" s="28">
+        <v>700</v>
+      </c>
+      <c r="K4" s="29">
+        <f>I4*J4</f>
+        <v>983.5</v>
+      </c>
+      <c r="L4" s="29">
+        <v>5</v>
+      </c>
+      <c r="M4" s="29">
+        <f>K4+L4</f>
+        <v>988.5</v>
+      </c>
+      <c r="O4" s="19">
+        <v>43286</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>700</v>
+      </c>
+      <c r="R4" s="29">
+        <f>P4*Q4</f>
+        <v>507.5</v>
+      </c>
+      <c r="S4" s="29">
+        <v>5</v>
+      </c>
+      <c r="T4" s="29">
+        <f>R4+S4</f>
+        <v>512.5</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,9 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00000_);[Red]\(#,##0.00000\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -271,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,9 +308,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +317,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,6 +355,28 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +685,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -736,7 +753,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -806,42 +823,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="30" style="36" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="2">
+    <row r="1" spans="1:4" s="30" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="31">
         <f>SUM(C3:C65535)</f>
-        <v>2000</v>
-      </c>
-      <c r="D1" s="17"/>
+        <v>4000</v>
+      </c>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -849,13 +866,13 @@
       <c r="A3" s="9">
         <v>43279</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="35">
         <v>1000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="36">
         <v>1.0229999999999999</v>
       </c>
     </row>
@@ -863,19 +880,43 @@
       <c r="A4" s="9">
         <v>43279</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="35">
         <v>1000</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="36">
         <v>0.83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9">
+        <v>43286</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>43286</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.83399999999999996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -889,247 +930,247 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="23" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>43284</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <v>1.44</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>700</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f>B3*C3</f>
         <v>1008</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <f>D3+E3</f>
         <v>1013</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>43284</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>1.42</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="26">
         <v>700</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <f>I3*J3</f>
         <v>994</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <v>5</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="27">
         <f>K3+L3</f>
         <v>999</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <v>43284</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="25">
         <v>0.73</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="26">
         <v>700</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="27">
         <f>P3*Q3</f>
         <v>511</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="27">
         <v>5</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="27">
         <f>R3+S3</f>
         <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>43285</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>1.44</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>700</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <f>B4*C4</f>
         <v>1008</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f>D4+E4</f>
         <v>1013</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>43286</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>1.405</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <v>700</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <f>I4*J4</f>
         <v>983.5</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>5</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="27">
         <f>K4+L4</f>
         <v>988.5</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="17">
         <v>43286</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="25">
         <v>0.72499999999999998</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="26">
         <v>700</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="27">
         <f>P4*Q4</f>
         <v>507.5</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="27">
         <v>5</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="27">
         <f>R4+S4</f>
         <v>512.5</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -12,6 +12,9 @@
     <sheet name="纯债基金" sheetId="3" r:id="rId3"/>
     <sheet name="指数基金" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">纯债基金!$A$2:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -75,15 +78,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>510310 - HS300ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510510 - 广发500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512880 - 证券ETF</t>
+    <t>510310
+HS300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510510
+广发500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512880
+证券ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,9 +100,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00000_);[Red]\(#,##0.00000\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +149,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +212,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,28 +252,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -259,30 +263,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,93 +276,108 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,61 +686,59 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="27">
         <f>B1-C1</f>
         <v>500000</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
         <v>500000</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>43286</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="22">
         <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -753,66 +752,64 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="27">
         <f>B1-C1</f>
         <v>278000</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
         <v>283000</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
         <v>5000</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>43286</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="22">
         <v>283000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>43286</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="C4" s="30">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -826,99 +823,100 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="30" style="36" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30" style="25" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="30" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="20">
         <f>SUM(C3:C65535)</f>
         <v>4000</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>43279</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="22">
         <v>1000</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="25">
         <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>43279</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="22">
         <v>1000</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="25">
         <v>0.83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>43286</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="22">
         <v>1000</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="25">
         <v>1.024</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>43286</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="25">
         <v>0.83399999999999996</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D6"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -927,257 +925,648 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="34" customWidth="1"/>
+    <col min="8" max="8" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.75" style="34" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:45" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="31">
+        <f>MIN(B3:B65535)</f>
+        <v>1.42</v>
+      </c>
+      <c r="C1" s="35">
+        <f t="shared" ref="C1:F1" si="0">SUM(C3:C65535)</f>
+        <v>2100</v>
+      </c>
+      <c r="D1" s="31">
+        <f t="shared" si="0"/>
+        <v>3010</v>
+      </c>
+      <c r="E1" s="31">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="F1" s="31">
+        <f>(D1+E1)/C1</f>
+        <v>1.4404761904761905</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31">
+        <f>MIN(I3:I65535)</f>
+        <v>1.38</v>
+      </c>
+      <c r="J1" s="35">
+        <f t="shared" ref="J1:M1" si="1">SUM(J3:J65535)</f>
+        <v>2800</v>
+      </c>
+      <c r="K1" s="31">
+        <f t="shared" si="1"/>
+        <v>3916.5</v>
+      </c>
+      <c r="L1" s="31">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M1" s="31">
+        <f>(K1+L1)/J1</f>
+        <v>1.4058928571428571</v>
+      </c>
+      <c r="N1" s="34"/>
+      <c r="O1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="P1" s="31">
+        <f>MIN(P3:P65535)</f>
+        <v>0.72</v>
+      </c>
+      <c r="Q1" s="35">
+        <f t="shared" ref="Q1:T1" si="2">SUM(Q3:Q65535)</f>
+        <v>2100</v>
+      </c>
+      <c r="R1" s="31">
+        <f t="shared" si="2"/>
+        <v>1522.5</v>
+      </c>
+      <c r="S1" s="31">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T1" s="31">
+        <f>(R1+S1)/Q1</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="U1" s="34"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+    </row>
+    <row r="2" spans="1:45" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="26"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+    </row>
+    <row r="3" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>43284</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="18">
         <v>1.44</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="37">
         <v>700</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="19">
         <f>B3*C3</f>
         <v>1008</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="19">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="19">
         <f>D3+E3</f>
         <v>1013</v>
       </c>
+      <c r="G3" s="34"/>
       <c r="H3" s="17">
         <v>43284</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="18">
         <v>1.42</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="37">
         <v>700</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="19">
         <f>I3*J3</f>
         <v>994</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="19">
         <v>5</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="19">
         <f>K3+L3</f>
         <v>999</v>
       </c>
+      <c r="N3" s="34"/>
       <c r="O3" s="17">
         <v>43284</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="18">
         <v>0.73</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="37">
         <v>700</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="19">
         <f>P3*Q3</f>
         <v>511</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="19">
         <v>5</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="19">
         <f>R3+S3</f>
         <v>516</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="34"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+    </row>
+    <row r="4" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>43285</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="18">
         <v>1.44</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="37">
         <v>700</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="19">
         <f>B4*C4</f>
         <v>1008</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="19">
         <v>5</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="19">
         <f>D4+E4</f>
         <v>1013</v>
       </c>
+      <c r="G4" s="34"/>
       <c r="H4" s="17">
         <v>43286</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="18">
         <v>1.405</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="37">
         <v>700</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="19">
         <f>I4*J4</f>
         <v>983.5</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="19">
         <v>5</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="19">
         <f>K4+L4</f>
         <v>988.5</v>
       </c>
+      <c r="N4" s="34"/>
       <c r="O4" s="17">
         <v>43286</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="18">
         <v>0.72499999999999998</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="37">
         <v>700</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="19">
         <f>P4*Q4</f>
         <v>507.5</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="19">
         <v>5</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="19">
         <f>R4+S4</f>
         <v>512.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="19"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+    </row>
+    <row r="5" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>43287</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1.42</v>
+      </c>
+      <c r="C5" s="37">
+        <v>700</v>
+      </c>
+      <c r="D5" s="19">
+        <f>B5*C5</f>
+        <v>994</v>
+      </c>
+      <c r="E5" s="19">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19">
+        <f>D5+E5</f>
+        <v>999</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="17">
+        <v>43287</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.39</v>
+      </c>
+      <c r="J5" s="37">
+        <v>700</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:K6" si="3">I5*J5</f>
+        <v>972.99999999999989</v>
+      </c>
+      <c r="L5" s="19">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" ref="M5:M6" si="4">K5+L5</f>
+        <v>977.99999999999989</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="17">
+        <v>43287</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>700</v>
+      </c>
+      <c r="R5" s="19">
+        <f>P5*Q5</f>
+        <v>504</v>
+      </c>
+      <c r="S5" s="19">
+        <v>5</v>
+      </c>
+      <c r="T5" s="19">
+        <f>R5+S5</f>
+        <v>509</v>
+      </c>
+      <c r="U5" s="34"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+    </row>
+    <row r="6" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="17">
+        <v>43287</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.38</v>
+      </c>
+      <c r="J6" s="37">
+        <v>700</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="3"/>
+        <v>965.99999999999989</v>
+      </c>
+      <c r="L6" s="19">
+        <v>5</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="4"/>
+        <v>970.99999999999989</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+    </row>
+    <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
     <sheet name="充" sheetId="2" r:id="rId2"/>
-    <sheet name="纯债基金" sheetId="3" r:id="rId3"/>
-    <sheet name="指数基金" sheetId="4" r:id="rId4"/>
+    <sheet name="华泰证券" sheetId="5" r:id="rId3"/>
+    <sheet name="纯债基金" sheetId="3" r:id="rId4"/>
+    <sheet name="指数基金" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">纯债基金!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">纯债基金!$A$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +91,14 @@
   <si>
     <t>512880
 证券ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿巨人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +109,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -322,13 +331,13 @@
     <xf numFmtId="177" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -343,16 +352,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +695,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -752,7 +761,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -767,15 +776,15 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>278000</v>
+        <v>210181</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
-        <v>283000</v>
+        <v>278000</v>
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
-        <v>5000</v>
+        <v>67819</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -794,15 +803,15 @@
         <v>43286</v>
       </c>
       <c r="B3" s="22">
-        <v>283000</v>
+        <v>278000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>43286</v>
+        <v>43294</v>
       </c>
       <c r="C4" s="30">
-        <v>5000</v>
+        <v>67819</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -820,10 +829,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27">
+        <f>B1-C1</f>
+        <v>46000</v>
+      </c>
+      <c r="B1" s="20">
+        <f>SUM(B3:B65535)</f>
+        <v>46000</v>
+      </c>
+      <c r="C1" s="28">
+        <f>SUM(C3:C65535)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43294</v>
+      </c>
+      <c r="B3" s="22">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -841,7 +915,7 @@
       <c r="B1" s="8"/>
       <c r="C1" s="20">
         <f>SUM(C3:C65535)</f>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D1" s="23"/>
     </row>
@@ -913,6 +987,28 @@
       </c>
       <c r="D6" s="25">
         <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43292</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43292</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
@@ -966,7 +1062,7 @@
         <v>1.42</v>
       </c>
       <c r="C1" s="35">
-        <f t="shared" ref="C1:F1" si="0">SUM(C3:C65535)</f>
+        <f t="shared" ref="C1:E1" si="0">SUM(C3:C65535)</f>
         <v>2100</v>
       </c>
       <c r="D1" s="31">
@@ -990,7 +1086,7 @@
         <v>1.38</v>
       </c>
       <c r="J1" s="35">
-        <f t="shared" ref="J1:M1" si="1">SUM(J3:J65535)</f>
+        <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
         <v>2800</v>
       </c>
       <c r="K1" s="31">
@@ -1014,7 +1110,7 @@
         <v>0.72</v>
       </c>
       <c r="Q1" s="35">
-        <f t="shared" ref="Q1:T1" si="2">SUM(Q3:Q65535)</f>
+        <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
         <v>2100</v>
       </c>
       <c r="R1" s="31">

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -695,7 +695,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -897,7 +897,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -999,6 +999,9 @@
       <c r="C7" s="22">
         <v>2000</v>
       </c>
+      <c r="D7" s="25">
+        <v>1.0018</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1009,6 +1012,9 @@
       </c>
       <c r="C8" s="22">
         <v>4000</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1.3185</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1030,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="华泰证券" sheetId="5" r:id="rId3"/>
     <sheet name="纯债基金" sheetId="3" r:id="rId4"/>
     <sheet name="指数基金" sheetId="4" r:id="rId5"/>
+    <sheet name="策略" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">纯债基金!$A$2:$D$6</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,50 @@
   </si>
   <si>
     <t>绿巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳指ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,10 +151,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -172,7 +218,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +279,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -276,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -386,6 +444,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +789,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -761,7 +855,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -832,7 +926,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -897,7 +991,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1029,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,4 +1767,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9" style="40"/>
+    <col min="3" max="3" width="9" style="41"/>
+    <col min="4" max="4" width="9" style="42"/>
+    <col min="5" max="5" width="9" style="43"/>
+    <col min="6" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="50" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C2" s="41">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="D2" s="42">
+        <v>1.49</v>
+      </c>
+      <c r="E2" s="43">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C3" s="41">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1.17</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E6" s="43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="C7" s="41">
+        <v>2.62</v>
+      </c>
+      <c r="D7" s="42">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="E7" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,11 @@
   </si>
   <si>
     <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512660
+军工ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +794,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -855,7 +860,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -926,7 +931,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -991,7 +996,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1123,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1150,7 +1155,14 @@
     <col min="19" max="19" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.75" style="34" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="10"/>
+    <col min="22" max="22" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.75" style="34" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
@@ -1226,13 +1238,30 @@
         <v>0.7321428571428571</v>
       </c>
       <c r="U1" s="34"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
+      <c r="V1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="31">
+        <f>MIN(W3:W65535)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X1" s="35">
+        <f t="shared" ref="X1:Z1" si="3">SUM(X3:X65535)</f>
+        <v>3000</v>
+      </c>
+      <c r="Y1" s="31">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="Z1" s="31">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="AA1" s="31">
+        <f>(Y1+Z1)/X1</f>
+        <v>0.70006999999999997</v>
+      </c>
+      <c r="AB1" s="34"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
@@ -1309,13 +1338,25 @@
         <v>12</v>
       </c>
       <c r="U2" s="26"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
+      <c r="V2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="26"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
@@ -1398,13 +1439,27 @@
         <v>516</v>
       </c>
       <c r="U3" s="34"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
+      <c r="V3" s="17">
+        <v>43300</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="X3" s="37">
+        <v>3000</v>
+      </c>
+      <c r="Y3" s="19">
+        <f>W3*X3</f>
+        <v>2100</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="AA3" s="19">
+        <f>Y3+Z3</f>
+        <v>2100.21</v>
+      </c>
+      <c r="AB3" s="34"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
@@ -1487,13 +1542,13 @@
         <v>512.5</v>
       </c>
       <c r="U4" s="34"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="34"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -1544,14 +1599,14 @@
         <v>700</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" ref="K5:K6" si="3">I5*J5</f>
+        <f t="shared" ref="K5:K6" si="4">I5*J5</f>
         <v>972.99999999999989</v>
       </c>
       <c r="L5" s="19">
         <v>5</v>
       </c>
       <c r="M5" s="19">
-        <f t="shared" ref="M5:M6" si="4">K5+L5</f>
+        <f t="shared" ref="M5:M6" si="5">K5+L5</f>
         <v>977.99999999999989</v>
       </c>
       <c r="N5" s="34"/>
@@ -1576,13 +1631,13 @@
         <v>509</v>
       </c>
       <c r="U5" s="34"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="34"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
@@ -1619,14 +1674,14 @@
         <v>700</v>
       </c>
       <c r="K6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>965.99999999999989</v>
       </c>
       <c r="L6" s="19">
         <v>5</v>
       </c>
       <c r="M6" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>970.99999999999989</v>
       </c>
       <c r="N6" s="34"/>
@@ -1637,13 +1692,13 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="34"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
@@ -1681,6 +1736,12 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
@@ -1701,6 +1762,12 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
@@ -1721,6 +1788,12 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
@@ -1741,6 +1814,12 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
     </row>
     <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
@@ -1761,6 +1840,12 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1773,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1453,6 +1453,7 @@
         <v>2100</v>
       </c>
       <c r="Z3" s="19">
+        <f>Y3/10000</f>
         <v>0.21</v>
       </c>
       <c r="AA3" s="19">

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,11 @@
   <si>
     <t>512660
 军工ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600739
+辽宁成大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +799,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -860,7 +865,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -875,7 +880,7 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>210181</v>
+        <v>201324.2</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
@@ -883,7 +888,7 @@
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
-        <v>67819</v>
+        <v>76675.8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -914,7 +919,12 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>43305</v>
+      </c>
+      <c r="C5" s="30">
+        <v>8856.7999999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -931,7 +941,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -946,11 +956,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>46000</v>
+        <v>76000</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
-        <v>46000</v>
+        <v>76000</v>
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
@@ -977,10 +987,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>43305</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>43305</v>
+      </c>
+      <c r="B5" s="22">
+        <v>20000</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -996,7 +1016,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1128,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1141,14 +1161,14 @@
     <col min="5" max="5" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.75" style="34" customWidth="1"/>
-    <col min="8" max="8" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.75" style="34" customWidth="1"/>
-    <col min="15" max="15" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.625" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.375" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" style="13" bestFit="1" customWidth="1"/>
@@ -1162,7 +1182,14 @@
     <col min="26" max="26" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.75" style="34" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="10"/>
+    <col min="29" max="29" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.75" style="34" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
@@ -1171,23 +1198,23 @@
       </c>
       <c r="B1" s="31">
         <f>MIN(B3:B65535)</f>
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="C1" s="35">
         <f t="shared" ref="C1:E1" si="0">SUM(C3:C65535)</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="D1" s="31">
         <f t="shared" si="0"/>
-        <v>3010</v>
+        <v>0</v>
       </c>
       <c r="E1" s="31">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F1" s="31">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31" t="e">
         <f>(D1+E1)/C1</f>
-        <v>1.4404761904761905</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G1" s="34"/>
       <c r="H1" s="33" t="s">
@@ -1195,23 +1222,23 @@
       </c>
       <c r="I1" s="31">
         <f>MIN(I3:I65535)</f>
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="J1" s="35">
         <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1" s="31">
         <f t="shared" si="1"/>
-        <v>3916.5</v>
+        <v>2980</v>
       </c>
       <c r="L1" s="31">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M1" s="31">
         <f>(K1+L1)/J1</f>
-        <v>1.4058928571428571</v>
+        <v>1.49</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="33" t="s">
@@ -1219,23 +1246,23 @@
       </c>
       <c r="P1" s="31">
         <f>MIN(P3:P65535)</f>
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="Q1" s="35">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>2100</v>
+        <v>13000</v>
       </c>
       <c r="R1" s="31">
         <f t="shared" si="2"/>
-        <v>1522.5</v>
+        <v>10010</v>
       </c>
       <c r="S1" s="31">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T1" s="31">
         <f>(R1+S1)/Q1</f>
-        <v>0.7321428571428571</v>
+        <v>0.77</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="33" t="s">
@@ -1247,11 +1274,11 @@
       </c>
       <c r="X1" s="35">
         <f t="shared" ref="X1:Z1" si="3">SUM(X3:X65535)</f>
-        <v>3000</v>
+        <v>16500</v>
       </c>
       <c r="Y1" s="31">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>12157.5</v>
       </c>
       <c r="Z1" s="31">
         <f t="shared" si="3"/>
@@ -1259,16 +1286,33 @@
       </c>
       <c r="AA1" s="31">
         <f>(Y1+Z1)/X1</f>
-        <v>0.70006999999999997</v>
+        <v>0.73683090909090909</v>
       </c>
       <c r="AB1" s="34"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="AC1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="31">
+        <f>MIN(AD3:AD65535)</f>
+        <v>14.8</v>
+      </c>
+      <c r="AE1" s="35">
+        <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
+        <v>3400</v>
+      </c>
+      <c r="AF1" s="31">
+        <f t="shared" si="4"/>
+        <v>50320</v>
+      </c>
+      <c r="AG1" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" s="31">
+        <f>(AF1+AG1)/AE1</f>
+        <v>14.8</v>
+      </c>
+      <c r="AI1" s="34"/>
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10"/>
@@ -1357,13 +1401,25 @@
         <v>12</v>
       </c>
       <c r="AB2" s="26"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
+      <c r="AC2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="26"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -1376,67 +1432,53 @@
       <c r="AS2" s="11"/>
     </row>
     <row r="3" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>43284</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1.44</v>
-      </c>
-      <c r="C3" s="37">
-        <v>700</v>
-      </c>
-      <c r="D3" s="19">
-        <f>B3*C3</f>
-        <v>1008</v>
-      </c>
-      <c r="E3" s="19">
-        <v>5</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3+E3</f>
-        <v>1013</v>
-      </c>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="34"/>
       <c r="H3" s="17">
-        <v>43284</v>
+        <v>43305</v>
       </c>
       <c r="I3" s="18">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="J3" s="37">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K3" s="19">
         <f>I3*J3</f>
-        <v>994</v>
+        <v>2980</v>
       </c>
       <c r="L3" s="19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="19">
         <f>K3+L3</f>
-        <v>999</v>
+        <v>2980</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="17">
-        <v>43284</v>
+        <v>43305</v>
       </c>
       <c r="P3" s="18">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="Q3" s="37">
-        <v>700</v>
+        <v>13000</v>
       </c>
       <c r="R3" s="19">
         <f>P3*Q3</f>
-        <v>511</v>
+        <v>10010</v>
       </c>
       <c r="S3" s="19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3" s="19">
         <f>R3+S3</f>
-        <v>516</v>
+        <v>10010</v>
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="17">
@@ -1461,13 +1503,27 @@
         <v>2100.21</v>
       </c>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
+      <c r="AC3" s="17">
+        <v>43305</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>3400</v>
+      </c>
+      <c r="AF3" s="19">
+        <f>AD3*AE3</f>
+        <v>50320</v>
+      </c>
+      <c r="AG3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="19">
+        <f>AF3+AG3</f>
+        <v>50320</v>
+      </c>
+      <c r="AI3" s="34"/>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
@@ -1480,83 +1536,55 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>43285</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1.44</v>
-      </c>
-      <c r="C4" s="37">
-        <v>700</v>
-      </c>
-      <c r="D4" s="19">
-        <f>B4*C4</f>
-        <v>1008</v>
-      </c>
-      <c r="E4" s="19">
-        <v>5</v>
-      </c>
-      <c r="F4" s="19">
-        <f>D4+E4</f>
-        <v>1013</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="17">
-        <v>43286</v>
-      </c>
-      <c r="I4" s="18">
-        <v>1.405</v>
-      </c>
-      <c r="J4" s="37">
-        <v>700</v>
-      </c>
-      <c r="K4" s="19">
-        <f>I4*J4</f>
-        <v>983.5</v>
-      </c>
-      <c r="L4" s="19">
-        <v>5</v>
-      </c>
-      <c r="M4" s="19">
-        <f>K4+L4</f>
-        <v>988.5</v>
-      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="17">
-        <v>43286</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>700</v>
-      </c>
-      <c r="R4" s="19">
-        <f>P4*Q4</f>
-        <v>507.5</v>
-      </c>
-      <c r="S4" s="19">
-        <v>5</v>
-      </c>
-      <c r="T4" s="19">
-        <f>R4+S4</f>
-        <v>512.5</v>
-      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="V4" s="17">
+        <v>43305</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0.745</v>
+      </c>
+      <c r="X4" s="37">
+        <v>13500</v>
+      </c>
+      <c r="Y4" s="19">
+        <f>W4*X4</f>
+        <v>10057.5</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <f>Y4+Z4</f>
+        <v>10057.5</v>
+      </c>
       <c r="AB4" s="34"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="34"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
@@ -1569,68 +1597,26 @@
       <c r="AS4" s="10"/>
     </row>
     <row r="5" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>43287</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1.42</v>
-      </c>
-      <c r="C5" s="37">
-        <v>700</v>
-      </c>
-      <c r="D5" s="19">
-        <f>B5*C5</f>
-        <v>994</v>
-      </c>
-      <c r="E5" s="19">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19">
-        <f>D5+E5</f>
-        <v>999</v>
-      </c>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="17">
-        <v>43287</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1.39</v>
-      </c>
-      <c r="J5" s="37">
-        <v>700</v>
-      </c>
-      <c r="K5" s="19">
-        <f t="shared" ref="K5:K6" si="4">I5*J5</f>
-        <v>972.99999999999989</v>
-      </c>
-      <c r="L5" s="19">
-        <v>5</v>
-      </c>
-      <c r="M5" s="19">
-        <f t="shared" ref="M5:M6" si="5">K5+L5</f>
-        <v>977.99999999999989</v>
-      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="17">
-        <v>43287</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0.72</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>700</v>
-      </c>
-      <c r="R5" s="19">
-        <f>P5*Q5</f>
-        <v>504</v>
-      </c>
-      <c r="S5" s="19">
-        <v>5</v>
-      </c>
-      <c r="T5" s="19">
-        <f>R5+S5</f>
-        <v>509</v>
-      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="34"/>
       <c r="V5" s="17"/>
       <c r="W5" s="18"/>
@@ -1639,13 +1625,13 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="34"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="34"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
@@ -1665,26 +1651,12 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="17">
-        <v>43287</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1.38</v>
-      </c>
-      <c r="J6" s="37">
-        <v>700</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="4"/>
-        <v>965.99999999999989</v>
-      </c>
-      <c r="L6" s="19">
-        <v>5</v>
-      </c>
-      <c r="M6" s="19">
-        <f t="shared" si="5"/>
-        <v>970.99999999999989</v>
-      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="34"/>
       <c r="O6" s="17"/>
       <c r="P6" s="18"/>
@@ -1700,13 +1672,13 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="34"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
@@ -1743,6 +1715,12 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
@@ -1769,6 +1747,12 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
@@ -1795,6 +1779,12 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
@@ -1821,6 +1811,12 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
@@ -1847,6 +1843,12 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1860,7 +1862,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -956,11 +956,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>76000</v>
+        <v>91000</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
-        <v>76000</v>
+        <v>91000</v>
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
@@ -1003,11 +1003,17 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>43305</v>
+      </c>
+      <c r="B6" s="22">
+        <v>15000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1148,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1226,11 +1232,11 @@
       </c>
       <c r="J1" s="35">
         <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
-        <v>2000</v>
+        <v>8900</v>
       </c>
       <c r="K1" s="31">
         <f t="shared" si="1"/>
-        <v>2980</v>
+        <v>13267.900000000001</v>
       </c>
       <c r="L1" s="31">
         <f t="shared" si="1"/>
@@ -1238,7 +1244,7 @@
       </c>
       <c r="M1" s="31">
         <f>(K1+L1)/J1</f>
-        <v>1.49</v>
+        <v>1.4907752808988766</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="33" t="s">
@@ -1250,11 +1256,11 @@
       </c>
       <c r="Q1" s="35">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>13000</v>
+        <v>19600</v>
       </c>
       <c r="R1" s="31">
         <f t="shared" si="2"/>
-        <v>10010</v>
+        <v>15125</v>
       </c>
       <c r="S1" s="31">
         <f t="shared" si="2"/>
@@ -1262,7 +1268,7 @@
       </c>
       <c r="T1" s="31">
         <f>(R1+S1)/Q1</f>
-        <v>0.77</v>
+        <v>0.77168367346938771</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="33" t="s">
@@ -1543,19 +1549,47 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="H4" s="17">
+        <v>43305</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="J4" s="37">
+        <v>6900</v>
+      </c>
+      <c r="K4" s="19">
+        <f>I4*J4</f>
+        <v>10287.900000000001</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <f>K4+L4</f>
+        <v>10287.900000000001</v>
+      </c>
       <c r="N4" s="34"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="O4" s="17">
+        <v>43305</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>6600</v>
+      </c>
+      <c r="R4" s="19">
+        <f>P4*Q4</f>
+        <v>5115</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <f>R4+S4</f>
+        <v>5115</v>
+      </c>
       <c r="U4" s="34"/>
       <c r="V4" s="17">
         <v>43305</v>
@@ -1861,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="丽" sheetId="1" r:id="rId1"/>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L1" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M1" s="31">
         <f>(K1+L1)/J1</f>
-        <v>1.4907752808988766</v>
+        <v>1.4909247191011237</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="33" t="s">
@@ -1264,11 +1264,11 @@
       </c>
       <c r="S1" s="31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T1" s="31">
         <f>(R1+S1)/Q1</f>
-        <v>0.77168367346938771</v>
+        <v>0.77176071428571424</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="33" t="s">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="Z1" s="31">
         <f t="shared" si="3"/>
-        <v>0.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA1" s="31">
         <f>(Y1+Z1)/X1</f>
-        <v>0.73683090909090909</v>
+        <v>0.73689212121212122</v>
       </c>
       <c r="AB1" s="34"/>
       <c r="AC1" s="33" t="s">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="AG1" s="31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.07</v>
       </c>
       <c r="AH1" s="31">
         <f>(AF1+AG1)/AE1</f>
-        <v>14.8</v>
+        <v>14.802961764705882</v>
       </c>
       <c r="AI1" s="34"/>
       <c r="AJ1" s="10"/>
@@ -1459,11 +1459,11 @@
         <v>2980</v>
       </c>
       <c r="L3" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="19">
         <f>K3+L3</f>
-        <v>2980</v>
+        <v>2980.3</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="17">
@@ -1480,11 +1480,11 @@
         <v>10010</v>
       </c>
       <c r="S3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="19">
         <f>R3+S3</f>
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="17">
@@ -1523,11 +1523,11 @@
         <v>50320</v>
       </c>
       <c r="AG3" s="19">
-        <v>0</v>
+        <v>10.07</v>
       </c>
       <c r="AH3" s="19">
         <f>AF3+AG3</f>
-        <v>50320</v>
+        <v>50330.07</v>
       </c>
       <c r="AI3" s="34"/>
       <c r="AJ3" s="10"/>
@@ -1563,11 +1563,11 @@
         <v>10287.900000000001</v>
       </c>
       <c r="L4" s="19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="M4" s="19">
         <f>K4+L4</f>
-        <v>10287.900000000001</v>
+        <v>10288.930000000002</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="17">
@@ -1584,11 +1584,11 @@
         <v>5115</v>
       </c>
       <c r="S4" s="19">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="T4" s="19">
         <f>R4+S4</f>
-        <v>5115</v>
+        <v>5115.51</v>
       </c>
       <c r="U4" s="34"/>
       <c r="V4" s="17">
@@ -1605,11 +1605,11 @@
         <v>10057.5</v>
       </c>
       <c r="Z4" s="19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA4" s="19">
         <f>Y4+Z4</f>
-        <v>10057.5</v>
+        <v>10058.51</v>
       </c>
       <c r="AB4" s="34"/>
       <c r="AC4" s="17"/>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="丽" sheetId="1" r:id="rId1"/>
-    <sheet name="充" sheetId="2" r:id="rId2"/>
+    <sheet name="充" sheetId="2" r:id="rId1"/>
+    <sheet name="平安证券" sheetId="1" r:id="rId2"/>
     <sheet name="华泰证券" sheetId="5" r:id="rId3"/>
     <sheet name="纯债基金" sheetId="3" r:id="rId4"/>
     <sheet name="指数基金" sheetId="4" r:id="rId5"/>
@@ -796,10 +796,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27">
+        <f>B1-C1</f>
+        <v>-172.52000000001863</v>
+      </c>
+      <c r="B1" s="20">
+        <f>SUM(B3:B65535)</f>
+        <v>278000</v>
+      </c>
+      <c r="C1" s="28">
+        <f>SUM(C3:C65535)</f>
+        <v>278172.52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43286</v>
+      </c>
+      <c r="B3" s="22">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43294</v>
+      </c>
+      <c r="C4" s="30">
+        <v>67819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43305</v>
+      </c>
+      <c r="C5" s="30">
+        <v>8856.7999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43308</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2004.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43311</v>
+      </c>
+      <c r="C7" s="30">
+        <v>199492.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -860,12 +949,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -880,15 +969,15 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>201324.2</v>
+        <v>251000</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
-        <v>278000</v>
+        <v>251000</v>
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
-        <v>76675.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -904,100 +993,24 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>43286</v>
+        <v>43294</v>
       </c>
       <c r="B3" s="22">
-        <v>278000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>43294</v>
-      </c>
-      <c r="C4" s="30">
-        <v>67819</v>
+        <v>43305</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43305</v>
       </c>
-      <c r="C5" s="30">
-        <v>8856.7999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
-        <f>B1-C1</f>
-        <v>91000</v>
-      </c>
-      <c r="B1" s="20">
-        <f>SUM(B3:B65535)</f>
-        <v>91000</v>
-      </c>
-      <c r="C1" s="28">
-        <f>SUM(C3:C65535)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43294</v>
-      </c>
-      <c r="B3" s="22">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43305</v>
-      </c>
-      <c r="B4" s="22">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>43305</v>
-      </c>
       <c r="B5" s="22">
         <v>20000</v>
       </c>
@@ -1008,6 +1021,14 @@
       </c>
       <c r="B6" s="22">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43311</v>
+      </c>
+      <c r="B7" s="22">
+        <v>160000</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1043,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1154,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1896,7 +1917,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="充" sheetId="2" r:id="rId1"/>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1321,23 +1321,23 @@
       </c>
       <c r="AD1" s="31">
         <f>MIN(AD3:AD65535)</f>
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="AE1" s="35">
         <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="AF1" s="31">
         <f t="shared" si="4"/>
-        <v>50320</v>
+        <v>60470</v>
       </c>
       <c r="AG1" s="31">
         <f t="shared" si="4"/>
-        <v>10.07</v>
+        <v>15.27</v>
       </c>
       <c r="AH1" s="31">
         <f>(AF1+AG1)/AE1</f>
-        <v>14.802961764705882</v>
+        <v>14.75250487804878</v>
       </c>
       <c r="AI1" s="34"/>
       <c r="AJ1" s="10"/>
@@ -1633,12 +1633,26 @@
         <v>10058.51</v>
       </c>
       <c r="AB4" s="34"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AC4" s="17">
+        <v>43311</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>700</v>
+      </c>
+      <c r="AF4" s="19">
+        <f>AD4*AE4</f>
+        <v>10150</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="AH4" s="19">
+        <f>AF4+AG4</f>
+        <v>10155.200000000001</v>
+      </c>
       <c r="AI4" s="34"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="充" sheetId="2" r:id="rId1"/>
     <sheet name="平安证券" sheetId="1" r:id="rId2"/>
     <sheet name="华泰证券" sheetId="5" r:id="rId3"/>
     <sheet name="纯债基金" sheetId="3" r:id="rId4"/>
-    <sheet name="指数基金" sheetId="4" r:id="rId5"/>
+    <sheet name="持仓" sheetId="4" r:id="rId5"/>
     <sheet name="策略" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,16 @@
   <si>
     <t>600739
 辽宁成大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159915
+创业板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601377
+兴业证券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +809,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -888,7 +898,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -951,10 +961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -969,11 +979,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>251000</v>
+        <v>270300</v>
       </c>
       <c r="B1" s="20">
         <f>SUM(B3:B65535)</f>
-        <v>251000</v>
+        <v>270300</v>
       </c>
       <c r="C1" s="28">
         <f>SUM(C3:C65535)</f>
@@ -1029,6 +1039,14 @@
       </c>
       <c r="B7" s="22">
         <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43314</v>
+      </c>
+      <c r="B8" s="22">
+        <v>19300</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1061,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1173,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1210,38 +1228,52 @@
     <col min="27" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.75" style="34" customWidth="1"/>
     <col min="29" max="29" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.625" style="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.375" style="38" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.75" style="34" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="10"/>
+    <col min="36" max="36" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.75" style="34" customWidth="1"/>
+    <col min="43" max="43" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.75" style="34" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="31">
         <f>MIN(B3:B65535)</f>
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C1" s="35">
         <f t="shared" ref="C1:E1" si="0">SUM(C3:C65535)</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="D1" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19435</v>
       </c>
       <c r="E1" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="e">
+        <v>1.95</v>
+      </c>
+      <c r="F1" s="31">
         <f>(D1+E1)/C1</f>
-        <v>#DIV/0!</v>
+        <v>1.49515</v>
       </c>
       <c r="G1" s="34"/>
       <c r="H1" s="33" t="s">
@@ -1249,109 +1281,150 @@
       </c>
       <c r="I1" s="31">
         <f>MIN(I3:I65535)</f>
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="J1" s="35">
         <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
-        <v>8900</v>
+        <v>15900</v>
       </c>
       <c r="K1" s="31">
         <f t="shared" si="1"/>
-        <v>13267.900000000001</v>
+        <v>23347.9</v>
       </c>
       <c r="L1" s="31">
         <f t="shared" si="1"/>
-        <v>1.33</v>
+        <v>2.34</v>
       </c>
       <c r="M1" s="31">
         <f>(K1+L1)/J1</f>
-        <v>1.4909247191011237</v>
+        <v>1.4685685534591195</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="33" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P1" s="31">
         <f>MIN(P3:P65535)</f>
-        <v>0.77</v>
+        <v>1.48</v>
       </c>
       <c r="Q1" s="35">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>19600</v>
+        <v>6500</v>
       </c>
       <c r="R1" s="31">
         <f t="shared" si="2"/>
-        <v>15125</v>
+        <v>9620</v>
       </c>
       <c r="S1" s="31">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>0.96</v>
       </c>
       <c r="T1" s="31">
         <f>(R1+S1)/Q1</f>
-        <v>0.77176071428571424</v>
+        <v>1.4801476923076922</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W1" s="31">
         <f>MIN(W3:W65535)</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="X1" s="35">
         <f t="shared" ref="X1:Z1" si="3">SUM(X3:X65535)</f>
-        <v>16500</v>
+        <v>23900</v>
       </c>
       <c r="Y1" s="31">
         <f t="shared" si="3"/>
-        <v>12157.5</v>
+        <v>18285.5</v>
       </c>
       <c r="Z1" s="31">
         <f t="shared" si="3"/>
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="AA1" s="31">
         <f>(Y1+Z1)/X1</f>
-        <v>0.73689212121212122</v>
+        <v>0.76516025104602514</v>
       </c>
       <c r="AB1" s="34"/>
       <c r="AC1" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD1" s="31">
         <f>MIN(AD3:AD65535)</f>
-        <v>14.5</v>
+        <v>0.67</v>
       </c>
       <c r="AE1" s="35">
         <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
-        <v>4100</v>
+        <v>61500</v>
       </c>
       <c r="AF1" s="31">
         <f t="shared" si="4"/>
-        <v>60470</v>
+        <v>43207.5</v>
       </c>
       <c r="AG1" s="31">
         <f t="shared" si="4"/>
-        <v>15.27</v>
+        <v>4.33</v>
       </c>
       <c r="AH1" s="31">
         <f>(AF1+AG1)/AE1</f>
-        <v>14.75250487804878</v>
+        <v>0.70263138211382115</v>
       </c>
       <c r="AI1" s="34"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-    </row>
-    <row r="2" spans="1:45" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="31">
+        <f>MIN(AK3:AK65535)</f>
+        <v>14</v>
+      </c>
+      <c r="AL1" s="35">
+        <f t="shared" ref="AL1:AN1" si="5">SUM(AL3:AL65535)</f>
+        <v>5500</v>
+      </c>
+      <c r="AM1" s="31">
+        <f t="shared" si="5"/>
+        <v>80350</v>
+      </c>
+      <c r="AN1" s="31">
+        <f t="shared" si="5"/>
+        <v>25.669999999999998</v>
+      </c>
+      <c r="AO1" s="31">
+        <f>(AM1+AN1)/AL1</f>
+        <v>14.613758181818181</v>
+      </c>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="31">
+        <f>MIN(AR3:AR65535)</f>
+        <v>4.8</v>
+      </c>
+      <c r="AS1" s="35">
+        <f t="shared" ref="AS1:AU1" si="6">SUM(AS3:AS65535)</f>
+        <v>2000</v>
+      </c>
+      <c r="AT1" s="31">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="AU1" s="31">
+        <f t="shared" si="6"/>
+        <v>5.19</v>
+      </c>
+      <c r="AV1" s="31">
+        <f>(AT1+AU1)/AS1</f>
+        <v>4.8025950000000002</v>
+      </c>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+    </row>
+    <row r="2" spans="1:52" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1464,7 @@
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="16" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>8</v>
@@ -1400,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S2" s="32" t="s">
         <v>11</v>
@@ -1410,7 +1483,7 @@
       </c>
       <c r="U2" s="26"/>
       <c r="V2" s="16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="W2" s="32" t="s">
         <v>8</v>
@@ -1419,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="32" t="s">
         <v>11</v>
@@ -1447,24 +1520,69 @@
         <v>12</v>
       </c>
       <c r="AI2" s="26"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-    </row>
-    <row r="3" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="AJ2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+    </row>
+    <row r="3" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>43313</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="37">
+        <v>6500</v>
+      </c>
+      <c r="D3" s="19">
+        <f>B3*C3</f>
+        <v>9750</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="F3" s="19">
+        <f>D3+E3</f>
+        <v>9750.98</v>
+      </c>
       <c r="G3" s="34"/>
       <c r="H3" s="17">
         <v>43305</v>
@@ -1488,87 +1606,136 @@
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="17">
-        <v>43305</v>
+        <v>43313</v>
       </c>
       <c r="P3" s="18">
-        <v>0.77</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" s="37">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="R3" s="19">
         <f>P3*Q3</f>
-        <v>10010</v>
+        <v>9620</v>
       </c>
       <c r="S3" s="19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="T3" s="19">
         <f>R3+S3</f>
-        <v>10011</v>
+        <v>9620.9599999999991</v>
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="17">
-        <v>43300</v>
+        <v>43305</v>
       </c>
       <c r="W3" s="18">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="X3" s="37">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="Y3" s="19">
         <f>W3*X3</f>
-        <v>2100</v>
+        <v>10010</v>
       </c>
       <c r="Z3" s="19">
-        <f>Y3/10000</f>
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="19">
         <f>Y3+Z3</f>
-        <v>2100.21</v>
+        <v>10011</v>
       </c>
       <c r="AB3" s="34"/>
       <c r="AC3" s="17">
-        <v>43305</v>
+        <v>43300</v>
       </c>
       <c r="AD3" s="18">
-        <v>14.8</v>
+        <v>0.7</v>
       </c>
       <c r="AE3" s="37">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="AF3" s="19">
         <f>AD3*AE3</f>
-        <v>50320</v>
+        <v>2100</v>
       </c>
       <c r="AG3" s="19">
-        <v>10.07</v>
+        <f>AF3/10000</f>
+        <v>0.21</v>
       </c>
       <c r="AH3" s="19">
         <f>AF3+AG3</f>
+        <v>2100.21</v>
+      </c>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="17">
+        <v>43305</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="AL3" s="37">
+        <v>3400</v>
+      </c>
+      <c r="AM3" s="19">
+        <f>AK3*AL3</f>
+        <v>50320</v>
+      </c>
+      <c r="AN3" s="19">
+        <v>10.07</v>
+      </c>
+      <c r="AO3" s="19">
+        <f>AM3+AN3</f>
         <v>50330.07</v>
       </c>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-    </row>
-    <row r="4" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="17">
+        <v>43313</v>
+      </c>
+      <c r="AR3" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="AS3" s="37">
+        <v>2000</v>
+      </c>
+      <c r="AT3" s="19">
+        <f>AR3*AS3</f>
+        <v>9600</v>
+      </c>
+      <c r="AU3" s="19">
+        <v>5.19</v>
+      </c>
+      <c r="AV3" s="19">
+        <f>AT3+AU3</f>
+        <v>9605.19</v>
+      </c>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+    </row>
+    <row r="4" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>43313</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1.49</v>
+      </c>
+      <c r="C4" s="37">
+        <v>6500</v>
+      </c>
+      <c r="D4" s="19">
+        <f>B4*C4</f>
+        <v>9685</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="F4" s="19">
+        <f>D4+E4</f>
+        <v>9685.9699999999993</v>
+      </c>
       <c r="G4" s="34"/>
       <c r="H4" s="17">
         <v>43305</v>
@@ -1591,81 +1758,88 @@
         <v>10288.930000000002</v>
       </c>
       <c r="N4" s="34"/>
-      <c r="O4" s="17">
-        <v>43305</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>6600</v>
-      </c>
-      <c r="R4" s="19">
-        <f>P4*Q4</f>
-        <v>5115</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0.51</v>
-      </c>
-      <c r="T4" s="19">
-        <f>R4+S4</f>
-        <v>5115.51</v>
-      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="34"/>
       <c r="V4" s="17">
         <v>43305</v>
       </c>
       <c r="W4" s="18">
-        <v>0.745</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="X4" s="37">
-        <v>13500</v>
+        <v>6600</v>
       </c>
       <c r="Y4" s="19">
         <f>W4*X4</f>
-        <v>10057.5</v>
+        <v>5115</v>
       </c>
       <c r="Z4" s="19">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="AA4" s="19">
         <f>Y4+Z4</f>
-        <v>10058.51</v>
+        <v>5115.51</v>
       </c>
       <c r="AB4" s="34"/>
       <c r="AC4" s="17">
-        <v>43311</v>
+        <v>43305</v>
       </c>
       <c r="AD4" s="18">
-        <v>14.5</v>
+        <v>0.745</v>
       </c>
       <c r="AE4" s="37">
-        <v>700</v>
+        <v>13500</v>
       </c>
       <c r="AF4" s="19">
         <f>AD4*AE4</f>
-        <v>10150</v>
+        <v>10057.5</v>
       </c>
       <c r="AG4" s="19">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="AH4" s="19">
         <f>AF4+AG4</f>
+        <v>10058.51</v>
+      </c>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="17">
+        <v>43311</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="AL4" s="37">
+        <v>700</v>
+      </c>
+      <c r="AM4" s="19">
+        <f>AK4*AL4</f>
+        <v>10150</v>
+      </c>
+      <c r="AN4" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="AO4" s="19">
+        <f>AM4+AN4</f>
         <v>10155.200000000001</v>
       </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-    </row>
-    <row r="5" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+    </row>
+    <row r="5" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="37"/>
@@ -1673,12 +1847,26 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="H5" s="17">
+        <v>43313</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.44</v>
+      </c>
+      <c r="J5" s="37">
+        <v>7000</v>
+      </c>
+      <c r="K5" s="19">
+        <f>I5*J5</f>
+        <v>10080</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1.01</v>
+      </c>
+      <c r="M5" s="19">
+        <f>K5+L5</f>
+        <v>10081.01</v>
+      </c>
       <c r="N5" s="34"/>
       <c r="O5" s="17"/>
       <c r="P5" s="18"/>
@@ -1687,32 +1875,81 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
+      <c r="V5" s="17">
+        <v>43313</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="X5" s="37">
+        <v>4300</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>W5*X5</f>
+        <v>3160.5</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>Y5+Z5</f>
+        <v>3160.82</v>
+      </c>
       <c r="AB5" s="34"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
+      <c r="AC5" s="17">
+        <v>43313</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>30000</v>
+      </c>
+      <c r="AF5" s="19">
+        <f>AD5*AE5</f>
+        <v>21000</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="AH5" s="19">
+        <f>AF5+AG5</f>
+        <v>21002.1</v>
+      </c>
       <c r="AI5" s="34"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-    </row>
-    <row r="6" spans="1:45" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ5" s="17">
+        <v>43313</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>14.4</v>
+      </c>
+      <c r="AL5" s="37">
+        <v>700</v>
+      </c>
+      <c r="AM5" s="19">
+        <f>AK5*AL5</f>
+        <v>10080</v>
+      </c>
+      <c r="AN5" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="AO5" s="19">
+        <f>AM5+AN5</f>
+        <v>10085.200000000001</v>
+      </c>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+    </row>
+    <row r="6" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="37"/>
@@ -1741,25 +1978,60 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="34"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AC6" s="17">
+        <v>43314</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>15000</v>
+      </c>
+      <c r="AF6" s="19">
+        <f>AD6*AE6</f>
+        <v>10050</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>1.01</v>
+      </c>
+      <c r="AH6" s="19">
+        <f>AF6+AG6</f>
+        <v>10051.01</v>
+      </c>
       <c r="AI6" s="34"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-    </row>
-    <row r="7" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ6" s="17">
+        <v>43314</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="37">
+        <v>700</v>
+      </c>
+      <c r="AM6" s="19">
+        <f>AK6*AL6</f>
+        <v>9800</v>
+      </c>
+      <c r="AN6" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="AO6" s="19">
+        <f>AM6+AN6</f>
+        <v>9805.2000000000007</v>
+      </c>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+    </row>
+    <row r="7" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="37"/>
@@ -1790,8 +2062,20 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-    </row>
-    <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+    </row>
+    <row r="8" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="37"/>
@@ -1822,8 +2106,20 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-    </row>
-    <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="37"/>
@@ -1854,8 +2150,20 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
-    </row>
-    <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+    </row>
+    <row r="10" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="37"/>
@@ -1886,8 +2194,20 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
-    </row>
-    <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+    </row>
+    <row r="11" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="37"/>
@@ -1918,6 +2238,18 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1930,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纳指ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,14 @@
   <si>
     <t>601377
 兴业证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁成大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +813,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -898,7 +902,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -964,7 +968,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1065,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1198,7 @@
   <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+      <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1257,23 +1261,23 @@
       </c>
       <c r="B1" s="31">
         <f>MIN(B3:B65535)</f>
-        <v>1.49</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="C1" s="35">
         <f t="shared" ref="C1:E1" si="0">SUM(C3:C65535)</f>
-        <v>13000</v>
+        <v>22400</v>
       </c>
       <c r="D1" s="31">
         <f t="shared" si="0"/>
-        <v>19435</v>
+        <v>32903.800000000003</v>
       </c>
       <c r="E1" s="31">
         <f t="shared" si="0"/>
-        <v>1.95</v>
+        <v>3.2900000000000005</v>
       </c>
       <c r="F1" s="31">
         <f>(D1+E1)/C1</f>
-        <v>1.49515</v>
+        <v>1.4690665178571429</v>
       </c>
       <c r="G1" s="34"/>
       <c r="H1" s="33" t="s">
@@ -1281,47 +1285,47 @@
       </c>
       <c r="I1" s="31">
         <f>MIN(I3:I65535)</f>
-        <v>1.44</v>
+        <v>1.363</v>
       </c>
       <c r="J1" s="35">
         <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
-        <v>15900</v>
+        <v>24300</v>
       </c>
       <c r="K1" s="31">
         <f t="shared" si="1"/>
-        <v>23347.9</v>
+        <v>34881.1</v>
       </c>
       <c r="L1" s="31">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>3.4899999999999998</v>
       </c>
       <c r="M1" s="31">
         <f>(K1+L1)/J1</f>
-        <v>1.4685685534591195</v>
+        <v>1.4355798353909464</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="31">
         <f>MIN(P3:P65535)</f>
-        <v>1.48</v>
+        <v>1.387</v>
       </c>
       <c r="Q1" s="35">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>6500</v>
+        <v>14900</v>
       </c>
       <c r="R1" s="31">
         <f t="shared" si="2"/>
-        <v>9620</v>
+        <v>21333.8</v>
       </c>
       <c r="S1" s="31">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>2.13</v>
       </c>
       <c r="T1" s="31">
         <f>(R1+S1)/Q1</f>
-        <v>1.4801476923076922</v>
+        <v>1.431941610738255</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="33" t="s">
@@ -1329,51 +1333,51 @@
       </c>
       <c r="W1" s="31">
         <f>MIN(W3:W65535)</f>
-        <v>0.73499999999999999</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="X1" s="35">
         <f t="shared" ref="X1:Z1" si="3">SUM(X3:X65535)</f>
-        <v>23900</v>
+        <v>26600</v>
       </c>
       <c r="Y1" s="31">
         <f t="shared" si="3"/>
-        <v>18285.5</v>
+        <v>20199.8</v>
       </c>
       <c r="Z1" s="31">
         <f t="shared" si="3"/>
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="AA1" s="31">
         <f>(Y1+Z1)/X1</f>
-        <v>0.76516025104602514</v>
+        <v>0.75946691729323312</v>
       </c>
       <c r="AB1" s="34"/>
       <c r="AC1" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="31">
         <f>MIN(AD3:AD65535)</f>
-        <v>0.67</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AE1" s="35">
         <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="AF1" s="31">
         <f t="shared" si="4"/>
-        <v>43207.5</v>
+        <v>45169.5</v>
       </c>
       <c r="AG1" s="31">
         <f t="shared" si="4"/>
-        <v>4.33</v>
+        <v>4.53</v>
       </c>
       <c r="AH1" s="31">
         <f>(AF1+AG1)/AE1</f>
-        <v>0.70263138211382115</v>
+        <v>0.70037255813953492</v>
       </c>
       <c r="AI1" s="34"/>
       <c r="AJ1" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK1" s="31">
         <f>MIN(AK3:AK65535)</f>
@@ -1397,7 +1401,7 @@
       </c>
       <c r="AP1" s="34"/>
       <c r="AQ1" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR1" s="31">
         <f>MIN(AR3:AR65535)</f>
@@ -1758,12 +1762,26 @@
         <v>10288.930000000002</v>
       </c>
       <c r="N4" s="34"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="O4" s="17">
+        <v>43319</v>
+      </c>
+      <c r="P4" s="18">
+        <v>1.387</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>1400</v>
+      </c>
+      <c r="R4" s="19">
+        <f>P4*Q4</f>
+        <v>1941.8</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="T4" s="19">
+        <f>R4+S4</f>
+        <v>1941.99</v>
+      </c>
       <c r="U4" s="34"/>
       <c r="V4" s="17">
         <v>43305</v>
@@ -1840,12 +1858,26 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="17">
+        <v>43318</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="19">
+        <f>B5*C5</f>
+        <v>2124</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F5" s="19">
+        <f>D5+E5</f>
+        <v>2124.21</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="17">
         <v>43313</v>
@@ -1868,12 +1900,26 @@
         <v>10081.01</v>
       </c>
       <c r="N5" s="34"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="O5" s="17">
+        <v>43319</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>7000</v>
+      </c>
+      <c r="R5" s="19">
+        <f>P5*Q5</f>
+        <v>9772</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="T5" s="19">
+        <f>R5+S5</f>
+        <v>9772.98</v>
+      </c>
       <c r="U5" s="34"/>
       <c r="V5" s="17">
         <v>43313</v>
@@ -1950,19 +1996,47 @@
       <c r="AZ5" s="10"/>
     </row>
     <row r="6" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="17">
+        <v>43319</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1.427</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" ref="D6:D7" si="7">B6*C6</f>
+        <v>1997.8</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" ref="F6:F7" si="8">D6+E6</f>
+        <v>1998</v>
+      </c>
       <c r="G6" s="34"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="H6" s="17">
+        <v>43319</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.375</v>
+      </c>
+      <c r="J6" s="37">
+        <v>7000</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" ref="K6:K7" si="9">I6*J6</f>
+        <v>9625</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M7" si="10">K6+L6</f>
+        <v>9625.9599999999991</v>
+      </c>
       <c r="N6" s="34"/>
       <c r="O6" s="17"/>
       <c r="P6" s="18"/>
@@ -1971,12 +2045,26 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
+      <c r="V6" s="17">
+        <v>43319</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="X6" s="37">
+        <v>2700</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>W6*X6</f>
+        <v>1914.3</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="AA6" s="19">
+        <f>Y6+Z6</f>
+        <v>1914.49</v>
+      </c>
       <c r="AB6" s="34"/>
       <c r="AC6" s="17">
         <v>43314</v>
@@ -2032,18 +2120,46 @@
       <c r="AZ6" s="10"/>
     </row>
     <row r="7" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="A7" s="17">
+        <v>43319</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="C7" s="37">
+        <v>6500</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="7"/>
+        <v>9347</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="8"/>
+        <v>9347.93</v>
+      </c>
+      <c r="H7" s="17">
+        <v>43319</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.363</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1400</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="9"/>
+        <v>1908.2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="10"/>
+        <v>1908.39</v>
+      </c>
       <c r="O7" s="17"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="37"/>
@@ -2056,12 +2172,26 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AC7" s="17">
+        <v>43319</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>3000</v>
+      </c>
+      <c r="AF7" s="19">
+        <f>AD7*AE7</f>
+        <v>1962</v>
+      </c>
+      <c r="AG7" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="AH7" s="19">
+        <f>AF7+AG7</f>
+        <v>1962.2</v>
+      </c>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="18"/>
       <c r="AL7" s="37"/>
@@ -2260,37 +2390,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N17" activeCellId="1" sqref="K14 N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="9" style="40"/>
-    <col min="3" max="3" width="9" style="41"/>
-    <col min="4" max="4" width="9" style="42"/>
-    <col min="5" max="5" width="9" style="43"/>
+    <col min="2" max="2" width="9.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="50" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2307,7 +2437,7 @@
         <v>1.49</v>
       </c>
       <c r="E2" s="43">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2324,7 +2454,7 @@
         <v>1.46</v>
       </c>
       <c r="E3" s="43">
-        <v>1.44</v>
+        <v>1.347</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2341,7 +2471,7 @@
         <v>1.5429999999999999</v>
       </c>
       <c r="E4" s="43">
-        <v>1.52</v>
+        <v>1.3680000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2358,7 +2488,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="E5" s="43">
-        <v>0.72</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2375,24 +2505,41 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="E6" s="43">
-        <v>0.7</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" s="40">
-        <v>0.93</v>
+        <v>4.5</v>
       </c>
       <c r="C7" s="41">
-        <v>2.62</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="D7" s="42">
-        <v>2.5590000000000002</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E7" s="43">
-        <v>2.2000000000000002</v>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="40">
+        <v>13.3</v>
+      </c>
+      <c r="C8" s="41">
+        <v>37.21</v>
+      </c>
+      <c r="D8" s="42">
+        <v>14.25</v>
+      </c>
+      <c r="E8" s="43">
+        <v>13.8</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -813,6 +813,161 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27">
+        <f>B1-C1</f>
+        <v>-172.52000000001863</v>
+      </c>
+      <c r="B1" s="20">
+        <f>SUM(B3:B65535)</f>
+        <v>278000</v>
+      </c>
+      <c r="C1" s="28">
+        <f>SUM(C3:C65535)</f>
+        <v>278172.52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43286</v>
+      </c>
+      <c r="B3" s="22">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43294</v>
+      </c>
+      <c r="C4" s="30">
+        <v>67819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43305</v>
+      </c>
+      <c r="C5" s="30">
+        <v>8856.7999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43308</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2004.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43311</v>
+      </c>
+      <c r="C7" s="30">
+        <v>199492.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27">
+        <f>B1-C1</f>
+        <v>500000</v>
+      </c>
+      <c r="B1" s="20">
+        <f>SUM(B3:B65535)</f>
+        <v>500000</v>
+      </c>
+      <c r="C1" s="28">
+        <f>SUM(C3:C65535)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43286</v>
+      </c>
+      <c r="B3" s="22">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -828,161 +983,6 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27">
         <f>B1-C1</f>
-        <v>-172.52000000001863</v>
-      </c>
-      <c r="B1" s="20">
-        <f>SUM(B3:B65535)</f>
-        <v>278000</v>
-      </c>
-      <c r="C1" s="28">
-        <f>SUM(C3:C65535)</f>
-        <v>278172.52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43286</v>
-      </c>
-      <c r="B3" s="22">
-        <v>278000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43294</v>
-      </c>
-      <c r="C4" s="30">
-        <v>67819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>43305</v>
-      </c>
-      <c r="C5" s="30">
-        <v>8856.7999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43308</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2004.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>43311</v>
-      </c>
-      <c r="C7" s="30">
-        <v>199492.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
-        <f>B1-C1</f>
-        <v>500000</v>
-      </c>
-      <c r="B1" s="20">
-        <f>SUM(B3:B65535)</f>
-        <v>500000</v>
-      </c>
-      <c r="C1" s="28">
-        <f>SUM(C3:C65535)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43286</v>
-      </c>
-      <c r="B3" s="22">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
-        <f>B1-C1</f>
         <v>270300</v>
       </c>
       <c r="B1" s="20">
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ11"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2393,7 +2393,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" activeCellId="1" sqref="K14 N17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2454,7 @@
         <v>1.46</v>
       </c>
       <c r="E3" s="43">
-        <v>1.347</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2471,7 +2471,7 @@
         <v>1.5429999999999999</v>
       </c>
       <c r="E4" s="43">
-        <v>1.3680000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2488,7 +2488,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="E5" s="43">
-        <v>0.69799999999999995</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2505,7 +2505,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="E6" s="43">
-        <v>0.64500000000000002</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,6 @@
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164703 - 汇添富纯债债券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164210 - 天弘同利债券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,6 +160,75 @@
   </si>
   <si>
     <t>辽宁成大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002044
+美年健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁连山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永辉超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华兰生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -384,9 +445,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -813,28 +871,28 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30" style="29" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <f>B1-C1</f>
         <v>-172.52000000001863</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <f>SUM(B3:B65535)</f>
         <v>278000</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <f>SUM(C3:C65535)</f>
         <v>278172.52</v>
       </c>
@@ -843,10 +901,10 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -854,7 +912,7 @@
       <c r="A3" s="4">
         <v>43286</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>278000</v>
       </c>
     </row>
@@ -862,7 +920,7 @@
       <c r="A4" s="4">
         <v>43294</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>67819</v>
       </c>
     </row>
@@ -870,7 +928,7 @@
       <c r="A5" s="4">
         <v>43305</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>8856.7999999999993</v>
       </c>
     </row>
@@ -878,7 +936,7 @@
       <c r="A6" s="4">
         <v>43308</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>2004.47</v>
       </c>
     </row>
@@ -886,7 +944,7 @@
       <c r="A7" s="4">
         <v>43311</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>199492.25</v>
       </c>
     </row>
@@ -908,22 +966,22 @@
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30" style="29" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <f>B1-C1</f>
         <v>500000</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <f>SUM(B3:B65535)</f>
         <v>500000</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <f>SUM(C3:C65535)</f>
         <v>0</v>
       </c>
@@ -932,10 +990,10 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -943,7 +1001,7 @@
       <c r="A3" s="4">
         <v>43286</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>500000</v>
       </c>
     </row>
@@ -968,28 +1026,28 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30" style="29" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <f>B1-C1</f>
         <v>270300</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <f>SUM(B3:B65535)</f>
         <v>270300</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <f>SUM(C3:C65535)</f>
         <v>0</v>
       </c>
@@ -998,10 +1056,10 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1009,7 +1067,7 @@
       <c r="A3" s="4">
         <v>43294</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>46000</v>
       </c>
     </row>
@@ -1017,7 +1075,7 @@
       <c r="A4" s="4">
         <v>43305</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>10000</v>
       </c>
     </row>
@@ -1025,7 +1083,7 @@
       <c r="A5" s="4">
         <v>43305</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>20000</v>
       </c>
     </row>
@@ -1033,7 +1091,7 @@
       <c r="A6" s="4">
         <v>43305</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>15000</v>
       </c>
     </row>
@@ -1041,7 +1099,7 @@
       <c r="A7" s="4">
         <v>43311</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>160000</v>
       </c>
     </row>
@@ -1049,7 +1107,7 @@
       <c r="A8" s="4">
         <v>43314</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>19300</v>
       </c>
     </row>
@@ -1062,18 +1120,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="30" style="25" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="21" customWidth="1"/>
+    <col min="4" max="4" width="30" style="24" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -1081,11 +1139,11 @@
     <row r="1" spans="1:4" s="9" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <f>SUM(C3:C65535)</f>
-        <v>10000</v>
-      </c>
-      <c r="D1" s="23"/>
+        <v>6000</v>
+      </c>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1094,96 +1152,48 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>43279</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1.0229999999999999</v>
+        <v>43292</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1.0018</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>43279</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.83</v>
+        <v>43292</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.3185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>43286</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1.024</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43286</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>43292</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1.0018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>43292</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="22">
-        <v>4000</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1.3185</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D6"/>
@@ -1195,1191 +1205,1300 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" style="34" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="33" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.75" style="34" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="33" customWidth="1"/>
     <col min="15" max="15" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.75" style="34" customWidth="1"/>
+    <col min="16" max="16" width="10.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.75" style="33" customWidth="1"/>
     <col min="22" max="22" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.75" style="34" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.75" style="33" customWidth="1"/>
     <col min="29" max="29" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.75" style="34" customWidth="1"/>
+    <col min="30" max="30" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.75" style="33" customWidth="1"/>
     <col min="36" max="36" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.75" style="34" customWidth="1"/>
+    <col min="37" max="37" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.75" style="33" customWidth="1"/>
     <col min="43" max="43" width="11.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.75" style="34" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="10"/>
+    <col min="44" max="44" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.75" style="33" customWidth="1"/>
+    <col min="50" max="50" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.75" style="33" customWidth="1"/>
+    <col min="57" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="31">
+    <row r="1" spans="1:56" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="30">
         <f>MIN(B3:B65535)</f>
         <v>1.4159999999999999</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <f t="shared" ref="C1:E1" si="0">SUM(C3:C65535)</f>
         <v>22400</v>
       </c>
-      <c r="D1" s="31">
+      <c r="D1" s="30">
         <f t="shared" si="0"/>
         <v>32903.800000000003</v>
       </c>
-      <c r="E1" s="31">
+      <c r="E1" s="30">
         <f t="shared" si="0"/>
         <v>3.2900000000000005</v>
       </c>
-      <c r="F1" s="31">
+      <c r="F1" s="30">
         <f>(D1+E1)/C1</f>
         <v>1.4690665178571429</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="31">
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="30">
         <f>MIN(I3:I65535)</f>
-        <v>1.363</v>
-      </c>
-      <c r="J1" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="J1" s="34">
         <f t="shared" ref="J1:L1" si="1">SUM(J3:J65535)</f>
-        <v>24300</v>
-      </c>
-      <c r="K1" s="31">
+        <v>31300</v>
+      </c>
+      <c r="K1" s="30">
         <f t="shared" si="1"/>
-        <v>34881.1</v>
-      </c>
-      <c r="L1" s="31">
+        <v>44331.1</v>
+      </c>
+      <c r="L1" s="30">
         <f t="shared" si="1"/>
-        <v>3.4899999999999998</v>
-      </c>
-      <c r="M1" s="31">
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="M1" s="30">
         <f>(K1+L1)/J1</f>
-        <v>1.4355798353909464</v>
-      </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="31">
+        <v>1.4164709265175719</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="30">
         <f>MIN(P3:P65535)</f>
-        <v>1.387</v>
-      </c>
-      <c r="Q1" s="35">
+        <v>1.37</v>
+      </c>
+      <c r="Q1" s="34">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>14900</v>
-      </c>
-      <c r="R1" s="31">
+        <v>7000</v>
+      </c>
+      <c r="R1" s="30">
         <f t="shared" si="2"/>
-        <v>21333.8</v>
-      </c>
-      <c r="S1" s="31">
+        <v>9590</v>
+      </c>
+      <c r="S1" s="30">
         <f t="shared" si="2"/>
-        <v>2.13</v>
-      </c>
-      <c r="T1" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="T1" s="30">
         <f>(R1+S1)/Q1</f>
-        <v>1.431941610738255</v>
-      </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="31">
+        <v>1.3701371428571427</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="30">
         <f>MIN(W3:W65535)</f>
         <v>0.70899999999999996</v>
       </c>
-      <c r="X1" s="35">
+      <c r="X1" s="34">
         <f t="shared" ref="X1:Z1" si="3">SUM(X3:X65535)</f>
         <v>26600</v>
       </c>
-      <c r="Y1" s="31">
+      <c r="Y1" s="30">
         <f t="shared" si="3"/>
         <v>20199.8</v>
       </c>
-      <c r="Z1" s="31">
+      <c r="Z1" s="30">
         <f t="shared" si="3"/>
         <v>2.02</v>
       </c>
-      <c r="AA1" s="31">
+      <c r="AA1" s="30">
         <f>(Y1+Z1)/X1</f>
         <v>0.75946691729323312</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="31">
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="30">
         <f>MIN(AD3:AD65535)</f>
         <v>0.65400000000000003</v>
       </c>
-      <c r="AE1" s="35">
+      <c r="AE1" s="34">
         <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
-        <v>64500</v>
-      </c>
-      <c r="AF1" s="31">
+        <v>78400</v>
+      </c>
+      <c r="AF1" s="30">
         <f t="shared" si="4"/>
-        <v>45169.5</v>
-      </c>
-      <c r="AG1" s="31">
+        <v>54315.7</v>
+      </c>
+      <c r="AG1" s="30">
         <f t="shared" si="4"/>
-        <v>4.53</v>
-      </c>
-      <c r="AH1" s="31">
+        <v>5.44</v>
+      </c>
+      <c r="AH1" s="30">
         <f>(AF1+AG1)/AE1</f>
-        <v>0.70037255813953492</v>
-      </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="31">
+        <v>0.69287168367346941</v>
+      </c>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="30">
         <f>MIN(AK3:AK65535)</f>
         <v>14</v>
       </c>
-      <c r="AL1" s="35">
+      <c r="AL1" s="34">
         <f t="shared" ref="AL1:AN1" si="5">SUM(AL3:AL65535)</f>
         <v>5500</v>
       </c>
-      <c r="AM1" s="31">
+      <c r="AM1" s="30">
         <f t="shared" si="5"/>
         <v>80350</v>
       </c>
-      <c r="AN1" s="31">
+      <c r="AN1" s="30">
         <f t="shared" si="5"/>
         <v>25.669999999999998</v>
       </c>
-      <c r="AO1" s="31">
+      <c r="AO1" s="30">
         <f>(AM1+AN1)/AL1</f>
         <v>14.613758181818181</v>
       </c>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR1" s="31">
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" s="30">
         <f>MIN(AR3:AR65535)</f>
         <v>4.8</v>
       </c>
-      <c r="AS1" s="35">
+      <c r="AS1" s="34">
         <f t="shared" ref="AS1:AU1" si="6">SUM(AS3:AS65535)</f>
         <v>2000</v>
       </c>
-      <c r="AT1" s="31">
+      <c r="AT1" s="30">
         <f t="shared" si="6"/>
         <v>9600</v>
       </c>
-      <c r="AU1" s="31">
+      <c r="AU1" s="30">
         <f t="shared" si="6"/>
         <v>5.19</v>
       </c>
-      <c r="AV1" s="31">
+      <c r="AV1" s="30">
         <f>(AT1+AU1)/AS1</f>
         <v>4.8025950000000002</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-    </row>
-    <row r="2" spans="1:52" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY1" s="30">
+        <f>MIN(AY3:AY65535)</f>
+        <v>13.59</v>
+      </c>
+      <c r="AZ1" s="34">
+        <f t="shared" ref="AZ1:BB1" si="7">SUM(AZ3:AZ65535)</f>
+        <v>700</v>
+      </c>
+      <c r="BA1" s="30">
+        <f t="shared" si="7"/>
+        <v>9513</v>
+      </c>
+      <c r="BB1" s="30">
+        <f t="shared" si="7"/>
+        <v>5.19</v>
+      </c>
+      <c r="BC1" s="30">
+        <f>(BA1+BB1)/AZ1</f>
+        <v>13.597414285714287</v>
+      </c>
+      <c r="BD1" s="33"/>
+    </row>
+    <row r="2" spans="1:56" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="L2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="16" t="s">
+      <c r="W2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="AD2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="AH2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="36" t="s">
+      <c r="AN2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="AO2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AR2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AV2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="36" t="s">
+      <c r="BB2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-    </row>
-    <row r="3" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="BC2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="25"/>
+    </row>
+    <row r="3" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
         <v>43313</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1.5</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>6500</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>B3*C3</f>
         <v>9750</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0.98</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>D3+E3</f>
         <v>9750.98</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="17">
+      <c r="G3" s="33"/>
+      <c r="H3" s="16">
         <v>43305</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>1.49</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <v>2000</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <f>I3*J3</f>
         <v>2980</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>0.3</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <f>K3+L3</f>
         <v>2980.3</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="17">
-        <v>43313</v>
-      </c>
-      <c r="P3" s="18">
-        <v>1.48</v>
-      </c>
-      <c r="Q3" s="37">
-        <v>6500</v>
-      </c>
-      <c r="R3" s="19">
-        <f>P3*Q3</f>
-        <v>9620</v>
-      </c>
-      <c r="S3" s="19">
+      <c r="N3" s="33"/>
+      <c r="O3" s="16">
+        <v>43329</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>7000</v>
+      </c>
+      <c r="R3" s="18">
+        <f t="shared" ref="R3" si="8">P3*Q3</f>
+        <v>9590</v>
+      </c>
+      <c r="S3" s="18">
         <v>0.96</v>
       </c>
-      <c r="T3" s="19">
-        <f>R3+S3</f>
-        <v>9620.9599999999991</v>
-      </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="17">
+      <c r="T3" s="18">
+        <f t="shared" ref="T3" si="9">R3+S3</f>
+        <v>9590.9599999999991</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="16">
         <v>43305</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="17">
         <v>0.77</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="36">
         <v>13000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <f>W3*X3</f>
         <v>10010</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>1</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA3" s="18">
         <f>Y3+Z3</f>
         <v>10011</v>
       </c>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="17">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="16">
         <v>43300</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="17">
         <v>0.7</v>
       </c>
-      <c r="AE3" s="37">
+      <c r="AE3" s="36">
         <v>3000</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="18">
         <f>AD3*AE3</f>
         <v>2100</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AG3" s="18">
         <f>AF3/10000</f>
         <v>0.21</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AH3" s="18">
         <f>AF3+AG3</f>
         <v>2100.21</v>
       </c>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="17">
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="16">
         <v>43305</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="17">
         <v>14.8</v>
       </c>
-      <c r="AL3" s="37">
+      <c r="AL3" s="36">
         <v>3400</v>
       </c>
-      <c r="AM3" s="19">
+      <c r="AM3" s="18">
         <f>AK3*AL3</f>
         <v>50320</v>
       </c>
-      <c r="AN3" s="19">
+      <c r="AN3" s="18">
         <v>10.07</v>
       </c>
-      <c r="AO3" s="19">
+      <c r="AO3" s="18">
         <f>AM3+AN3</f>
         <v>50330.07</v>
       </c>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="17">
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="16">
         <v>43313</v>
       </c>
-      <c r="AR3" s="18">
+      <c r="AR3" s="17">
         <v>4.8</v>
       </c>
-      <c r="AS3" s="37">
+      <c r="AS3" s="36">
         <v>2000</v>
       </c>
-      <c r="AT3" s="19">
+      <c r="AT3" s="18">
         <f>AR3*AS3</f>
         <v>9600</v>
       </c>
-      <c r="AU3" s="19">
+      <c r="AU3" s="18">
         <v>5.19</v>
       </c>
-      <c r="AV3" s="19">
+      <c r="AV3" s="18">
         <f>AT3+AU3</f>
         <v>9605.19</v>
       </c>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-    </row>
-    <row r="4" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="16">
+        <v>43329</v>
+      </c>
+      <c r="AY3" s="17">
+        <v>13.59</v>
+      </c>
+      <c r="AZ3" s="36">
+        <v>700</v>
+      </c>
+      <c r="BA3" s="18">
+        <f>AY3*AZ3</f>
+        <v>9513</v>
+      </c>
+      <c r="BB3" s="18">
+        <v>5.19</v>
+      </c>
+      <c r="BC3" s="18">
+        <f>BA3+BB3</f>
+        <v>9518.19</v>
+      </c>
+      <c r="BD3" s="33"/>
+    </row>
+    <row r="4" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16">
         <v>43313</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1.49</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>6500</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f>B4*C4</f>
         <v>9685</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.97</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f>D4+E4</f>
         <v>9685.9699999999993</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="17">
+      <c r="G4" s="33"/>
+      <c r="H4" s="16">
         <v>43305</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>1.4910000000000001</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>6900</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <f>I4*J4</f>
         <v>10287.900000000001</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>1.03</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f>K4+L4</f>
         <v>10288.930000000002</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="17">
-        <v>43319</v>
-      </c>
-      <c r="P4" s="18">
-        <v>1.387</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>1400</v>
-      </c>
-      <c r="R4" s="19">
-        <f>P4*Q4</f>
-        <v>1941.8</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0.19</v>
-      </c>
-      <c r="T4" s="19">
-        <f>R4+S4</f>
-        <v>1941.99</v>
-      </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="17">
+      <c r="N4" s="33"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="16">
         <v>43305</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="17">
         <v>0.77500000000000002</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="36">
         <v>6600</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <f>W4*X4</f>
         <v>5115</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <v>0.51</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="18">
         <f>Y4+Z4</f>
         <v>5115.51</v>
       </c>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="17">
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="16">
         <v>43305</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="17">
         <v>0.745</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="36">
         <v>13500</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="18">
         <f>AD4*AE4</f>
         <v>10057.5</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="18">
         <v>1.01</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="18">
         <f>AF4+AG4</f>
         <v>10058.51</v>
       </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="17">
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="16">
         <v>43311</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="17">
         <v>14.5</v>
       </c>
-      <c r="AL4" s="37">
+      <c r="AL4" s="36">
         <v>700</v>
       </c>
-      <c r="AM4" s="19">
+      <c r="AM4" s="18">
         <f>AK4*AL4</f>
         <v>10150</v>
       </c>
-      <c r="AN4" s="19">
+      <c r="AN4" s="18">
         <v>5.2</v>
       </c>
-      <c r="AO4" s="19">
+      <c r="AO4" s="18">
         <f>AM4+AN4</f>
         <v>10155.200000000001</v>
       </c>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-    </row>
-    <row r="5" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="33"/>
+    </row>
+    <row r="5" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16">
         <v>43318</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1.4159999999999999</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>1500</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>B5*C5</f>
         <v>2124</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0.21</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>D5+E5</f>
         <v>2124.21</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="17">
+      <c r="G5" s="33"/>
+      <c r="H5" s="16">
         <v>43313</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>1.44</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>7000</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <f>I5*J5</f>
         <v>10080</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>1.01</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f>K5+L5</f>
         <v>10081.01</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="17">
-        <v>43319</v>
-      </c>
-      <c r="P5" s="18">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>7000</v>
-      </c>
-      <c r="R5" s="19">
-        <f>P5*Q5</f>
-        <v>9772</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0.98</v>
-      </c>
-      <c r="T5" s="19">
-        <f>R5+S5</f>
-        <v>9772.98</v>
-      </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="17">
+      <c r="N5" s="33"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="16">
         <v>43313</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="17">
         <v>0.73499999999999999</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="36">
         <v>4300</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <f>W5*X5</f>
         <v>3160.5</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>0.32</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <f>Y5+Z5</f>
         <v>3160.82</v>
       </c>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="17">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="16">
         <v>43313</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="17">
         <v>0.7</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="36">
         <v>30000</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="18">
         <f>AD5*AE5</f>
         <v>21000</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="18">
         <v>2.1</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="18">
         <f>AF5+AG5</f>
         <v>21002.1</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="17">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="16">
         <v>43313</v>
       </c>
-      <c r="AK5" s="18">
+      <c r="AK5" s="17">
         <v>14.4</v>
       </c>
-      <c r="AL5" s="37">
+      <c r="AL5" s="36">
         <v>700</v>
       </c>
-      <c r="AM5" s="19">
+      <c r="AM5" s="18">
         <f>AK5*AL5</f>
         <v>10080</v>
       </c>
-      <c r="AN5" s="19">
+      <c r="AN5" s="18">
         <v>5.2</v>
       </c>
-      <c r="AO5" s="19">
+      <c r="AO5" s="18">
         <f>AM5+AN5</f>
         <v>10085.200000000001</v>
       </c>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-    </row>
-    <row r="6" spans="1:52" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="33"/>
+    </row>
+    <row r="6" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
         <v>43319</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1.427</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>1400</v>
       </c>
-      <c r="D6" s="19">
-        <f t="shared" ref="D6:D7" si="7">B6*C6</f>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D7" si="10">B6*C6</f>
         <v>1997.8</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.2</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" ref="F6:F7" si="8">D6+E6</f>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:F7" si="11">D6+E6</f>
         <v>1998</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="17">
+      <c r="G6" s="33"/>
+      <c r="H6" s="16">
         <v>43319</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>1.375</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>7000</v>
       </c>
-      <c r="K6" s="19">
-        <f t="shared" ref="K6:K7" si="9">I6*J6</f>
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:K7" si="12">I6*J6</f>
         <v>9625</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>0.96</v>
       </c>
-      <c r="M6" s="19">
-        <f t="shared" ref="M6:M7" si="10">K6+L6</f>
+      <c r="M6" s="18">
+        <f t="shared" ref="M6:M7" si="13">K6+L6</f>
         <v>9625.9599999999991</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="17">
+      <c r="N6" s="33"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="16">
         <v>43319</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="17">
         <v>0.70899999999999996</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="36">
         <v>2700</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <f>W6*X6</f>
         <v>1914.3</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="18">
         <v>0.19</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="18">
         <f>Y6+Z6</f>
         <v>1914.49</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="17">
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="16">
         <v>43314</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="17">
         <v>0.67</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AE6" s="36">
         <v>15000</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="18">
         <f>AD6*AE6</f>
         <v>10050</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="18">
         <v>1.01</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="18">
         <f>AF6+AG6</f>
         <v>10051.01</v>
       </c>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="17">
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="16">
         <v>43314</v>
       </c>
-      <c r="AK6" s="18">
+      <c r="AK6" s="17">
         <v>14</v>
       </c>
-      <c r="AL6" s="37">
+      <c r="AL6" s="36">
         <v>700</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AM6" s="18">
         <f>AK6*AL6</f>
         <v>9800</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AN6" s="18">
         <v>5.2</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="18">
         <f>AM6+AN6</f>
         <v>9805.2000000000007</v>
       </c>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-    </row>
-    <row r="7" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="33"/>
+    </row>
+    <row r="7" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16">
         <v>43319</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1.4379999999999999</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>6500</v>
       </c>
-      <c r="D7" s="19">
-        <f t="shared" si="7"/>
+      <c r="D7" s="18">
+        <f t="shared" si="10"/>
         <v>9347</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.93</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="8"/>
+      <c r="F7" s="18">
+        <f t="shared" si="11"/>
         <v>9347.93</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>43319</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>1.363</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>1400</v>
       </c>
-      <c r="K7" s="19">
-        <f t="shared" si="9"/>
+      <c r="K7" s="18">
+        <f t="shared" si="12"/>
         <v>1908.2</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <v>0.19</v>
       </c>
-      <c r="M7" s="19">
-        <f t="shared" si="10"/>
+      <c r="M7" s="18">
+        <f t="shared" si="13"/>
         <v>1908.39</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AC7" s="17">
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AC7" s="16">
         <v>43319</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="17">
         <v>0.65400000000000003</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="36">
         <v>3000</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="18">
         <f>AD7*AE7</f>
         <v>1962</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="AG7" s="18">
         <v>0.2</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AH7" s="18">
         <f>AF7+AG7</f>
         <v>1962.2</v>
       </c>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-    </row>
-    <row r="8" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-    </row>
-    <row r="9" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-    </row>
-    <row r="10" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-    </row>
-    <row r="11" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+    </row>
+    <row r="8" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="16">
+        <v>43329</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="J8" s="36">
+        <v>7000</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" ref="K8" si="14">I8*J8</f>
+        <v>9450</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" ref="M8" si="15">K8+L8</f>
+        <v>9450.9500000000007</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AC8" s="16">
+        <v>43329</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AE8" s="36">
+        <v>13900</v>
+      </c>
+      <c r="AF8" s="18">
+        <f>AD8*AE8</f>
+        <v>9146.2000000000007</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="AH8" s="18">
+        <f>AF8+AG8</f>
+        <v>9147.11</v>
+      </c>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+    </row>
+    <row r="9" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+    </row>
+    <row r="10" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+    </row>
+    <row r="11" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+    </row>
+    <row r="13" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2390,156 +2509,284 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="29.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" s="49" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="39">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C2" s="40">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1.49</v>
+      </c>
+      <c r="E2" s="42">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C3" s="40">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1.46</v>
+      </c>
+      <c r="E3" s="42">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="40">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="C2" s="41">
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="D2" s="42">
-        <v>1.49</v>
-      </c>
-      <c r="E2" s="43">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="B4" s="39">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C3" s="41">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1.46</v>
-      </c>
-      <c r="E3" s="43">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="B5" s="39">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1.17</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="40">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="C4" s="41">
-        <v>3.8450000000000002</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="C5" s="41">
-        <v>1.17</v>
-      </c>
-      <c r="D5" s="42">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="E5" s="43">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>0.64</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>0.64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="40">
+      <c r="A7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="39">
         <v>4.5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>16.559999999999999</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="39">
+        <v>13.3</v>
+      </c>
+      <c r="C8" s="40">
+        <v>37.21</v>
+      </c>
+      <c r="D8" s="41">
+        <v>14.25</v>
+      </c>
+      <c r="E8" s="42">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="40">
-        <v>13.3</v>
-      </c>
-      <c r="C8" s="41">
-        <v>37.21</v>
-      </c>
-      <c r="D8" s="42">
-        <v>14.25</v>
-      </c>
-      <c r="E8" s="43">
-        <v>13.8</v>
+      <c r="E9" s="42">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="42">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="42">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="42">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="42">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -4,25 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="充" sheetId="2" r:id="rId1"/>
-    <sheet name="平安证券" sheetId="1" r:id="rId2"/>
-    <sheet name="华泰证券" sheetId="5" r:id="rId3"/>
-    <sheet name="纯债基金" sheetId="3" r:id="rId4"/>
-    <sheet name="持仓" sheetId="4" r:id="rId5"/>
-    <sheet name="策略" sheetId="6" r:id="rId6"/>
+    <sheet name="华泰证券" sheetId="5" r:id="rId1"/>
+    <sheet name="纯债基金" sheetId="3" r:id="rId2"/>
+    <sheet name="持仓" sheetId="4" r:id="rId3"/>
+    <sheet name="策略" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">纯债基金!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">纯债基金!$A$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>512660
 军工ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +223,23 @@
   </si>
   <si>
     <t>国泰商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美年健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600581
+八一钢铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -886,15 +897,15 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26">
         <f>B1-C1</f>
-        <v>-172.52000000001863</v>
+        <v>570300</v>
       </c>
       <c r="B1" s="19">
         <f>SUM(B3:B65535)</f>
-        <v>278000</v>
+        <v>570300</v>
       </c>
       <c r="C1" s="27">
         <f>SUM(C3:C65535)</f>
-        <v>278172.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -910,42 +921,58 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>43286</v>
+        <v>43294</v>
       </c>
       <c r="B3" s="21">
-        <v>278000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>43294</v>
-      </c>
-      <c r="C4" s="29">
-        <v>67819</v>
+        <v>43305</v>
+      </c>
+      <c r="B4" s="21">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43305</v>
       </c>
-      <c r="C5" s="29">
-        <v>8856.7999999999993</v>
+      <c r="B5" s="21">
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43308</v>
-      </c>
-      <c r="C6" s="29">
-        <v>2004.47</v>
+        <v>43305</v>
+      </c>
+      <c r="B6" s="21">
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43311</v>
       </c>
-      <c r="C7" s="29">
-        <v>199492.25</v>
+      <c r="B7" s="21">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43314</v>
+      </c>
+      <c r="B8" s="21">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43340</v>
+      </c>
+      <c r="B9" s="21">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -957,173 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="30" style="29" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26">
-        <f>B1-C1</f>
-        <v>500000</v>
-      </c>
-      <c r="B1" s="19">
-        <f>SUM(B3:B65535)</f>
-        <v>500000</v>
-      </c>
-      <c r="C1" s="27">
-        <f>SUM(C3:C65535)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43286</v>
-      </c>
-      <c r="B3" s="21">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="30" style="29" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26">
-        <f>B1-C1</f>
-        <v>270300</v>
-      </c>
-      <c r="B1" s="19">
-        <f>SUM(B3:B65535)</f>
-        <v>270300</v>
-      </c>
-      <c r="C1" s="27">
-        <f>SUM(C3:C65535)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43294</v>
-      </c>
-      <c r="B3" s="21">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43305</v>
-      </c>
-      <c r="B4" s="21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>43305</v>
-      </c>
-      <c r="B5" s="21">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43305</v>
-      </c>
-      <c r="B6" s="21">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>43311</v>
-      </c>
-      <c r="B7" s="21">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>43314</v>
-      </c>
-      <c r="B8" s="21">
-        <v>19300</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1203,12 +1067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BG17" sqref="BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1269,10 +1133,17 @@
     <col min="54" max="54" width="9.75" style="12" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12.75" style="12" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="3.75" style="33" customWidth="1"/>
-    <col min="57" max="16384" width="9" style="10"/>
+    <col min="57" max="57" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.75" style="33" customWidth="1"/>
+    <col min="64" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
@@ -1322,27 +1193,27 @@
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="30">
         <f>MIN(P3:P65535)</f>
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="34">
         <f t="shared" ref="Q1:S1" si="2">SUM(Q3:Q65535)</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="R1" s="30">
         <f t="shared" si="2"/>
-        <v>9590</v>
+        <v>0</v>
       </c>
       <c r="S1" s="30">
         <f t="shared" si="2"/>
-        <v>0.96</v>
-      </c>
-      <c r="T1" s="30">
+        <v>0</v>
+      </c>
+      <c r="T1" s="30" t="e">
         <f>(R1+S1)/Q1</f>
-        <v>1.3701371428571427</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U1" s="33"/>
       <c r="V1" s="32" t="s">
@@ -1370,31 +1241,31 @@
       </c>
       <c r="AB1" s="33"/>
       <c r="AC1" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="30">
         <f>MIN(AD3:AD65535)</f>
-        <v>0.65400000000000003</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="34">
         <f t="shared" ref="AE1:AG1" si="4">SUM(AE3:AE65535)</f>
-        <v>78400</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="30">
         <f t="shared" si="4"/>
-        <v>54315.7</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="30">
         <f t="shared" si="4"/>
-        <v>5.44</v>
-      </c>
-      <c r="AH1" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="30" t="e">
         <f>(AF1+AG1)/AE1</f>
-        <v>0.69287168367346941</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI1" s="33"/>
       <c r="AJ1" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK1" s="30">
         <f>MIN(AK3:AK65535)</f>
@@ -1418,7 +1289,7 @@
       </c>
       <c r="AP1" s="33"/>
       <c r="AQ1" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR1" s="30">
         <f>MIN(AR3:AR65535)</f>
@@ -1442,31 +1313,55 @@
       </c>
       <c r="AW1" s="33"/>
       <c r="AX1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AY1" s="30">
         <f>MIN(AY3:AY65535)</f>
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="34">
         <f t="shared" ref="AZ1:BB1" si="7">SUM(AZ3:AZ65535)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="30">
         <f t="shared" si="7"/>
-        <v>9513</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="30">
         <f t="shared" si="7"/>
-        <v>5.19</v>
-      </c>
-      <c r="BC1" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="30" t="e">
         <f>(BA1+BB1)/AZ1</f>
-        <v>13.597414285714287</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BD1" s="33"/>
-    </row>
-    <row r="2" spans="1:56" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF1" s="30">
+        <f>MIN(BF3:BF65535)</f>
+        <v>5.09</v>
+      </c>
+      <c r="BG1" s="34">
+        <f t="shared" ref="BG1:BI1" si="8">SUM(BG3:BG65535)</f>
+        <v>5900</v>
+      </c>
+      <c r="BH1" s="30">
+        <f t="shared" si="8"/>
+        <v>30371</v>
+      </c>
+      <c r="BI1" s="30">
+        <f t="shared" si="8"/>
+        <v>10.6</v>
+      </c>
+      <c r="BJ1" s="30">
+        <f>(BH1+BI1)/BG1</f>
+        <v>5.1494237288135594</v>
+      </c>
+      <c r="BK1" s="33"/>
+    </row>
+    <row r="2" spans="1:63" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -1619,8 +1514,27 @@
         <v>10</v>
       </c>
       <c r="BD2" s="25"/>
-    </row>
-    <row r="3" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK2" s="25"/>
+    </row>
+    <row r="3" spans="1:63" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>43313</v>
       </c>
@@ -1663,26 +1577,12 @@
         <v>2980.3</v>
       </c>
       <c r="N3" s="33"/>
-      <c r="O3" s="16">
-        <v>43329</v>
-      </c>
-      <c r="P3" s="17">
-        <v>1.37</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>7000</v>
-      </c>
-      <c r="R3" s="18">
-        <f t="shared" ref="R3" si="8">P3*Q3</f>
-        <v>9590</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0.96</v>
-      </c>
-      <c r="T3" s="18">
-        <f t="shared" ref="T3" si="9">R3+S3</f>
-        <v>9590.9599999999991</v>
-      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="33"/>
       <c r="V3" s="16">
         <v>43305</v>
@@ -1705,27 +1605,12 @@
         <v>10011</v>
       </c>
       <c r="AB3" s="33"/>
-      <c r="AC3" s="16">
-        <v>43300</v>
-      </c>
-      <c r="AD3" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="AE3" s="36">
-        <v>3000</v>
-      </c>
-      <c r="AF3" s="18">
-        <f>AD3*AE3</f>
-        <v>2100</v>
-      </c>
-      <c r="AG3" s="18">
-        <f>AF3/10000</f>
-        <v>0.21</v>
-      </c>
-      <c r="AH3" s="18">
-        <f>AF3+AG3</f>
-        <v>2100.21</v>
-      </c>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
       <c r="AI3" s="33"/>
       <c r="AJ3" s="16">
         <v>43305</v>
@@ -1769,29 +1654,36 @@
         <v>9605.19</v>
       </c>
       <c r="AW3" s="33"/>
-      <c r="AX3" s="16">
-        <v>43329</v>
-      </c>
-      <c r="AY3" s="17">
-        <v>13.59</v>
-      </c>
-      <c r="AZ3" s="36">
-        <v>700</v>
-      </c>
-      <c r="BA3" s="18">
-        <f>AY3*AZ3</f>
-        <v>9513</v>
-      </c>
-      <c r="BB3" s="18">
-        <v>5.19</v>
-      </c>
-      <c r="BC3" s="18">
-        <f>BA3+BB3</f>
-        <v>9518.19</v>
-      </c>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
       <c r="BD3" s="33"/>
-    </row>
-    <row r="4" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE3" s="16">
+        <v>43336</v>
+      </c>
+      <c r="BF3" s="17">
+        <v>5.26</v>
+      </c>
+      <c r="BG3" s="36">
+        <v>2000</v>
+      </c>
+      <c r="BH3" s="18">
+        <f>BF3*BG3</f>
+        <v>10520</v>
+      </c>
+      <c r="BI3" s="18">
+        <v>5.21</v>
+      </c>
+      <c r="BJ3" s="18">
+        <f>BH3+BI3</f>
+        <v>10525.21</v>
+      </c>
+      <c r="BK3" s="33"/>
+    </row>
+    <row r="4" spans="1:63" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>43313</v>
       </c>
@@ -1862,26 +1754,12 @@
         <v>5115.51</v>
       </c>
       <c r="AB4" s="33"/>
-      <c r="AC4" s="16">
-        <v>43305</v>
-      </c>
-      <c r="AD4" s="17">
-        <v>0.745</v>
-      </c>
-      <c r="AE4" s="36">
-        <v>13500</v>
-      </c>
-      <c r="AF4" s="18">
-        <f>AD4*AE4</f>
-        <v>10057.5</v>
-      </c>
-      <c r="AG4" s="18">
-        <v>1.01</v>
-      </c>
-      <c r="AH4" s="18">
-        <f>AF4+AG4</f>
-        <v>10058.51</v>
-      </c>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
       <c r="AI4" s="33"/>
       <c r="AJ4" s="16">
         <v>43311</v>
@@ -1918,8 +1796,29 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
       <c r="BD4" s="33"/>
-    </row>
-    <row r="5" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE4" s="16">
+        <v>43336</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>5.09</v>
+      </c>
+      <c r="BG4" s="36">
+        <v>3900</v>
+      </c>
+      <c r="BH4" s="18">
+        <f>BF4*BG4</f>
+        <v>19851</v>
+      </c>
+      <c r="BI4" s="18">
+        <v>5.39</v>
+      </c>
+      <c r="BJ4" s="18">
+        <f>BH4+BI4</f>
+        <v>19856.39</v>
+      </c>
+      <c r="BK4" s="33"/>
+    </row>
+    <row r="5" spans="1:63" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>43318</v>
       </c>
@@ -1990,26 +1889,12 @@
         <v>3160.82</v>
       </c>
       <c r="AB5" s="33"/>
-      <c r="AC5" s="16">
-        <v>43313</v>
-      </c>
-      <c r="AD5" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="AE5" s="36">
-        <v>30000</v>
-      </c>
-      <c r="AF5" s="18">
-        <f>AD5*AE5</f>
-        <v>21000</v>
-      </c>
-      <c r="AG5" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="AH5" s="18">
-        <f>AF5+AG5</f>
-        <v>21002.1</v>
-      </c>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
       <c r="AI5" s="33"/>
       <c r="AJ5" s="16">
         <v>43313</v>
@@ -2046,8 +1931,15 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
       <c r="BD5" s="33"/>
-    </row>
-    <row r="6" spans="1:56" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="17"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="33"/>
+    </row>
+    <row r="6" spans="1:63" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>43319</v>
       </c>
@@ -2058,14 +1950,14 @@
         <v>1400</v>
       </c>
       <c r="D6" s="18">
-        <f t="shared" ref="D6:D7" si="10">B6*C6</f>
+        <f t="shared" ref="D6:D7" si="9">B6*C6</f>
         <v>1997.8</v>
       </c>
       <c r="E6" s="18">
         <v>0.2</v>
       </c>
       <c r="F6" s="18">
-        <f t="shared" ref="F6:F7" si="11">D6+E6</f>
+        <f t="shared" ref="F6:F7" si="10">D6+E6</f>
         <v>1998</v>
       </c>
       <c r="G6" s="33"/>
@@ -2079,14 +1971,14 @@
         <v>7000</v>
       </c>
       <c r="K6" s="18">
-        <f t="shared" ref="K6:K7" si="12">I6*J6</f>
+        <f t="shared" ref="K6:K7" si="11">I6*J6</f>
         <v>9625</v>
       </c>
       <c r="L6" s="18">
         <v>0.96</v>
       </c>
       <c r="M6" s="18">
-        <f t="shared" ref="M6:M7" si="13">K6+L6</f>
+        <f t="shared" ref="M6:M7" si="12">K6+L6</f>
         <v>9625.9599999999991</v>
       </c>
       <c r="N6" s="33"/>
@@ -2118,26 +2010,12 @@
         <v>1914.49</v>
       </c>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="16">
-        <v>43314</v>
-      </c>
-      <c r="AD6" s="17">
-        <v>0.67</v>
-      </c>
-      <c r="AE6" s="36">
-        <v>15000</v>
-      </c>
-      <c r="AF6" s="18">
-        <f>AD6*AE6</f>
-        <v>10050</v>
-      </c>
-      <c r="AG6" s="18">
-        <v>1.01</v>
-      </c>
-      <c r="AH6" s="18">
-        <f>AF6+AG6</f>
-        <v>10051.01</v>
-      </c>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="16">
         <v>43314</v>
@@ -2174,8 +2052,15 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
       <c r="BD6" s="33"/>
-    </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="33"/>
+    </row>
+    <row r="7" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>43319</v>
       </c>
@@ -2186,14 +2071,14 @@
         <v>6500</v>
       </c>
       <c r="D7" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9347</v>
       </c>
       <c r="E7" s="18">
         <v>0.93</v>
       </c>
       <c r="F7" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9347.93</v>
       </c>
       <c r="H7" s="16">
@@ -2206,14 +2091,14 @@
         <v>1400</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1908.2</v>
       </c>
       <c r="L7" s="18">
         <v>0.19</v>
       </c>
       <c r="M7" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1908.39</v>
       </c>
       <c r="O7" s="16"/>
@@ -2228,26 +2113,12 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
-      <c r="AC7" s="16">
-        <v>43319</v>
-      </c>
-      <c r="AD7" s="17">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="AE7" s="36">
-        <v>3000</v>
-      </c>
-      <c r="AF7" s="18">
-        <f>AD7*AE7</f>
-        <v>1962</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="AH7" s="18">
-        <f>AF7+AG7</f>
-        <v>1962.2</v>
-      </c>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="36"/>
@@ -2266,8 +2137,14 @@
       <c r="BA7" s="18"/>
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
-    </row>
-    <row r="8" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+    </row>
+    <row r="8" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="36"/>
@@ -2284,14 +2161,14 @@
         <v>7000</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8" si="14">I8*J8</f>
+        <f t="shared" ref="K8" si="13">I8*J8</f>
         <v>9450</v>
       </c>
       <c r="L8" s="18">
         <v>0.95</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" ref="M8" si="15">K8+L8</f>
+        <f t="shared" ref="M8" si="14">K8+L8</f>
         <v>9450.9500000000007</v>
       </c>
       <c r="O8" s="16"/>
@@ -2306,26 +2183,12 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
-      <c r="AC8" s="16">
-        <v>43329</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="AE8" s="36">
-        <v>13900</v>
-      </c>
-      <c r="AF8" s="18">
-        <f>AD8*AE8</f>
-        <v>9146.2000000000007</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>0.91</v>
-      </c>
-      <c r="AH8" s="18">
-        <f>AF8+AG8</f>
-        <v>9147.11</v>
-      </c>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="17"/>
       <c r="AL8" s="36"/>
@@ -2344,8 +2207,14 @@
       <c r="BA8" s="18"/>
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
-    </row>
-    <row r="9" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+    </row>
+    <row r="9" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="36"/>
@@ -2394,8 +2263,14 @@
       <c r="BA9" s="18"/>
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
-    </row>
-    <row r="10" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+    </row>
+    <row r="10" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="36"/>
@@ -2444,8 +2319,14 @@
       <c r="BA10" s="18"/>
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
-    </row>
-    <row r="11" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+    </row>
+    <row r="11" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="36"/>
@@ -2494,8 +2375,14 @@
       <c r="BA11" s="18"/>
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
-    </row>
-    <row r="13" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+    </row>
+    <row r="13" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -2507,12 +2394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2522,10 +2409,11 @@
     <col min="3" max="3" width="9.5" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="43"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="49" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="49" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
@@ -2539,10 +2427,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
@@ -2558,8 +2449,11 @@
       <c r="E2" s="42">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="42">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
@@ -2575,8 +2469,11 @@
       <c r="E3" s="42">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="42">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
@@ -2592,8 +2489,11 @@
       <c r="E4" s="42">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="42">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
@@ -2609,8 +2509,11 @@
       <c r="E5" s="42">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="42">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -2626,10 +2529,13 @@
       <c r="E6" s="42">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="42">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="39">
         <v>4.5</v>
@@ -2644,9 +2550,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="39">
         <v>13.3</v>
@@ -2661,65 +2567,65 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="42">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="42">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E11" s="42">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="42">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="42">
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="42">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="42">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38" t="s">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="42">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
+      <c r="E15" s="42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="42">
         <v>12</v>
@@ -2727,65 +2633,73 @@
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="42">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="42">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="42">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="42">
-        <v>2.5750000000000002</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="42">
-        <v>1.36</v>
+        <v>2.5750000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="42">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="42">
-        <v>0.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="42">
         <v>0.4</v>
       </c>
     </row>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -897,11 +897,11 @@
     <row r="1" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26">
         <f>B1-C1</f>
-        <v>570300</v>
+        <v>580000</v>
       </c>
       <c r="B1" s="19">
         <f>SUM(B3:B65535)</f>
-        <v>570300</v>
+        <v>580000</v>
       </c>
       <c r="C1" s="27">
         <f>SUM(C3:C65535)</f>
@@ -973,6 +973,14 @@
       </c>
       <c r="B9" s="21">
         <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>43350</v>
+      </c>
+      <c r="B10" s="21">
+        <v>9700</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +995,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1071,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BG17" sqref="BG17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BH16" sqref="BH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2399,7 +2407,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,38 @@
   <si>
     <t>600581
 八一钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H股ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分众传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复星医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都路桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1027,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1079,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BH16" sqref="BH16"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BH18" sqref="BH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2404,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2416,8 +2448,7 @@
     <col min="2" max="2" width="9.5" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="42"/>
+    <col min="5" max="6" width="9.5" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
@@ -2639,7 +2670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>40</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>41</v>
       </c>
@@ -2655,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
         <v>43</v>
       </c>
@@ -2671,7 +2702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
         <v>44</v>
       </c>
@@ -2679,7 +2710,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>45</v>
       </c>
@@ -2687,7 +2718,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
         <v>46</v>
       </c>
@@ -2695,7 +2726,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>47</v>
       </c>
@@ -2703,12 +2734,76 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="42">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="42">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="42">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="42">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="42">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="42">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="42">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
